--- a/spreadsheet/macrofree/avs_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.pt.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -976,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1094,27 +1059,23 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os backups não são armazenados no vSAN, pois o vSAN é um recurso finito</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="inlineStr">
-        <is>
-          <t>Certifique-se de que os repositórios de dados da solução de backup sejam armazenados fora do armazenamento vSAN. No nativo do Azure ou em um armazenamento de dados com backup de pool de discos</t>
-        </is>
-      </c>
+          <t>Verifique se os controladores de domínio ADDS são implantados na assinatura de identidade no Azure nativo</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1123,17 +1084,13 @@
         </is>
       </c>
       <c r="G8" s="21" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H8" s="15" t="n"/>
       <c r="I8" s="15" t="n"/>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>976f32a7-30d1-6caa-c2a0-207fdc26571b</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1144,24 +1101,20 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use o MABS como sua solução de backup</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Serviço de backup da Microsoft</t>
-        </is>
-      </c>
+          <t>Verifique se os sites e serviços do ADDS estão configurados para manter as solicitações de autenticação de recursos baseados no Azure (incluindo a Solução VMware do Azure) locais para o Azure</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1173,17 +1126,13 @@
         </is>
       </c>
       <c r="G9" s="21" t="n"/>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H9" s="15" t="n"/>
       <c r="I9" s="15" t="n"/>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>fc8af7a1-c724-e255-c18d-4ca22a6f27f0</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1194,27 +1143,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Implante sua solução de backup na mesma região que sua nuvem privada da Solução VMware do Azure</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>Prática recomendada - isso é backup, não recuperação de desastres</t>
-        </is>
-      </c>
+          <t>Verifique se o vCenter está conectado ao ADDS para habilitar a autenticação com base em 'contas de usuário nomeadas'</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1223,17 +1168,13 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="inlineStr">
-        <is>
-          <t>Best practice to deploy backup in the same region as your AVS deployment</t>
-        </is>
-      </c>
+      <c r="H10" s="15" t="n"/>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>be28860f-3d29-a79a-1a0e-36f1b23b36ae</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1244,24 +1185,20 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>De preferência, implante o MABS fora do SDDC como IaaS nativa do Azure</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas - caso o AVS não esteja disponível</t>
-        </is>
-      </c>
+          <t>Verifique se a conexão do vCenter com o ADDS está usando um protocolo seguro (LDAPS)</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1273,17 +1210,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4d2f79a5-4ccf-0dfc-557c-49619b99a540</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1294,24 +1227,20 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Processo de escalonamento com a Microsoft no caso de um DR regional</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="inlineStr">
-        <is>
-          <t>Existe um processo para solicitar uma restauração dos componentes VMware gerenciados pela Plataforma Azure?</t>
-        </is>
-      </c>
+          <t>A conta do CloudAdmin no vCenter IdP é usada apenas como uma conta de emergência (break-glass)</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1323,17 +1252,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>Will Disaster Recovery Site Recovery, HCX Disaster Recovery, SRM or back tools be used?</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>ff431c40-962c-5182-d536-0c2f0c4ce9e0</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1344,27 +1269,23 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Usar o VMware Site Recovery Manager quando ambos os sites forem a Solução VMware do Azure</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>Compare o SRM com o HCX</t>
-        </is>
-      </c>
+          <t>Garantir que o NSX-Manager esteja integrado a um provedor de identidade externo</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1373,17 +1294,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/disaster-recovery-using-vmware-site-recovery-manager</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>f379436d-3051-daa0-01fb-dc4e0e04d677</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,24 +1311,20 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure Site Recovery quando a tecnologia de Recuperação de Desastres for IaaS nativa do Azure</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>Recuperação no Azure em vez da solução Vmware</t>
-        </is>
-      </c>
+          <t>Foi criado um modelo RBAC para uso no VMware vSphere</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1423,17 +1336,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>367f71d8-3cf6-51a0-91a5-3db3d570cc19</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,24 +1353,20 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use planos de recuperação automatizados com uma das soluções de desastre,</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>Evite ao máximo as tarefas manuais</t>
-        </is>
-      </c>
+          <t>As permissões RBAC devem ser concedidas em grupos ADDS e não em usuários específicos</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1473,17 +1378,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>ee02ada0-1887-bb3a-b84c-423f45a09ef9</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,27 +1395,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configurar um ambiente secundário de recuperação de desastres</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="inlineStr">
-        <is>
-          <t>Qualquer outro datacenter na mesma região</t>
-        </is>
-      </c>
+          <t>As permissões RBAC no recurso Solução VMware do Azure no Azure são 'bloqueadas' apenas para um conjunto limitado de proprietários</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1523,17 +1420,13 @@
         </is>
       </c>
       <c r="G16" s="21" t="n"/>
-      <c r="H16" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/connect-multiple-private-clouds-same-region</t>
-        </is>
-      </c>
+      <c r="H16" s="15" t="n"/>
       <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>0c2b74e5-9c28-780d-1df3-12d3de4aaa76</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,27 +1437,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Arquitetura</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Atribuir intervalos de IP exclusivos a cada região</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="inlineStr">
-        <is>
-          <t>Use 2 espaços de endereço diferentes entre as regiões, por exemplo: 10.0.0.0/16 e 192.168.0.0/16 para as diferentes regiões</t>
-        </is>
-      </c>
+          <t>O modelo de conectividade correto da Solução VMware do Azure está selecionado para o caso de uso do cliente em mãos?</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1575,7 +1464,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1583,7 +1472,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>c2a34ec4-2933-4e6c-dc36-e20e67abbe3f</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,27 +1483,23 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Usar o Alcance Global entre regiões de DR</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="inlineStr">
-        <is>
-          <t>O ExpressRoute Global Reach pode ser usado para conectividade entre as Nuvens Privadas da Solução VMware do Azure primária e secundária ou o roteamento deve ser feito por meio de dispositivos virtuais de rede?</t>
-        </is>
-      </c>
+          <t>Garantir que as conexões de Rota Expressa ou VPN do local para o Azure sejam monitoradas usando o 'monitor de conexão'</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,17 +1508,13 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="inlineStr">
-        <is>
-          <t>This depends if you have multiple AVS Private Clouds. If so and they are in the same region then use AVS Interconnect. If they are in separate regions then use ExpressRoute Global Reach.</t>
-        </is>
-      </c>
+      <c r="H18" s="15" t="n"/>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>b44fb6ec-bfc1-3a8e-dba2-ca97f0991d2c</t>
+          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,24 +1525,20 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usar o Cofre de Chaves do Azure com criptografia de convidado </t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="inlineStr">
-        <is>
-          <t>Quando a criptografia no convidado é usada, armazene chaves de criptografia no cofre de chaves do Azure quando possível</t>
-        </is>
-      </c>
+          <t>Verifique se um monitor de conexão foi criado a partir de um recurso nativo do Azure para uma máquina virtual da Solução VMware do Azure para monitorar a conexão de Rota Expressa de back-end da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1673,17 +1550,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>General recommendation for storing encryption keys.</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>70cfbddc-d3d4-9188-77c8-1cabaefef646</t>
+          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1694,24 +1567,20 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Usar criptografia no convidado</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Garanta que as cargas de trabalho na Solução VMware do Azure usem criptografia de dados suficiente durante o tempo de execução (como criptografia de disco convidado e SQL TDE). (a criptografia vSAN em repouso é padrão)</t>
-        </is>
-      </c>
+          <t>Verifique se um monitor de conexão é criado a partir de um recurso local para uma máquina virtual da Solução VMware do Azure para monitorar a conectividade de ponta 2</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1723,17 +1592,13 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#data-at-rest-encryption</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>c1a81638-18df-0ce9-a73a-4b9a8a8dd392</t>
+          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,27 +1609,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Roteamento</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Uso do Keyvault para segredos</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Usar o Cofre de chaves para armazenar segredos e chaves de autorização quando Princípios de Serviço separados são usados para implantar a Solução VMware do Azure e a Rota Expressa</t>
-        </is>
-      </c>
+          <t>Quando o servidor de rotas for usado, certifique-se de que não mais de 200 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS). Importante ao usar o MoN</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1773,17 +1634,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/key-vault/general/authentication</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8d0a8f51-8d35-19cd-c2fe-4e3512fb467e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1794,27 +1651,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Suporte estendido</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantir suporte estendido a atualizações de segurança </t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Os patches de segurança do sistema operacional mais antigos configurados para cargas de trabalho em execução na Solução VMware do Azure são qualificados para o ESU</t>
-        </is>
-      </c>
+          <t>O Gerenciamento de Identidades Privilegiadas é implementado para funções que gerenciam o recurso da Solução VMware do Azure no Portal do Azure (não são permitidas permissões permanentes)</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1823,17 +1676,13 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/windows-server/get-started/extended-security-updates-deploy</t>
-        </is>
-      </c>
+      <c r="H22" s="15" t="n"/>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4f8b20e9-a2a1-f80f-af9b-8aa3b26dca08</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1844,27 +1693,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Investigação</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar o Azure Sentinel ou o SIEM de terceiros 3 </t>
-        </is>
-      </c>
-      <c r="D23" s="21" t="inlineStr">
-        <is>
-          <t>Usar um SIEM/SOAR</t>
-        </is>
-      </c>
+          <t>O relatório de auditoria do Gerenciamento de Identidades Privilegiadas é implementado para as funções PIM da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1873,17 +1718,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/sentinel/overview</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bb22fec-4d00-3b95-7136-e225d0f5c63a</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1894,27 +1735,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Direto (sem vWAN, sem H&amp;S)</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Circuito Global Reach to ExR - sem recursos do Azure</t>
-        </is>
-      </c>
-      <c r="D24" s="21" t="inlineStr">
-        <is>
-          <t>Uma conexão ExR Global Reach será estabelecida para o circuito ExR, sem outras conexões</t>
-        </is>
-      </c>
+          <t>Limitar o uso da conta do CloudAdmin apenas ao acesso de emergência</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1923,17 +1760,13 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H24" s="15" t="n"/>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>a2c12df2-07fa-3edd-2cec-fda0b55fb952</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1944,24 +1777,20 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Conectar-se ao Azure usando o ExR</t>
-        </is>
-      </c>
-      <c r="D25" s="21" t="inlineStr">
-        <is>
-          <t>Usar o ExR para conectar o local (outro) ao Azure</t>
-        </is>
-      </c>
+          <t>Criar funções RBAC personalizadas no vCenter para implementar um modelo de privilégios mínimos dentro do vCenter</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1973,17 +1802,13 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>f62ce162-ba5a-429d-674e-fafa1af5f706</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1994,24 +1819,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Dimensionamento de largura de banda</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>Use a ferramenta de avaliação de migração e a linha do tempo para determinar a largura de banda necessária</t>
-        </is>
-      </c>
+          <t>É um processo definido para alternar regularmente as credenciais cloudadmin (vCenter) e admin (NSX)</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2023,17 +1844,13 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-introduction</t>
-        </is>
-      </c>
+      <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>cf01c73b-1247-0a7a-740c-e1ea29bda340</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2044,27 +1861,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roteamento de tráfego </t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Qual tráfego é roteado através de um firewall, o que vai diretamente para o Azure</t>
-        </is>
-      </c>
+          <t>Usar um provedor de identidade centralizado a ser usado para cargas de trabalho (VMs) em execução na Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2073,16 +1886,12 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>aab216ee-8941-315e-eada-c7e1f2243bd1</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2093,24 +1902,20 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alcance Global </t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>Circuito AVS para ExR, sem inspeção de tráfego</t>
-        </is>
-      </c>
+          <t>A filtragem de tráfego Leste-Oeste é implementada no NSX-T</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2122,16 +1927,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>1f956e45-f62d-5c95-3a95-3bab718907f8</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,27 +1943,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>vNet name &amp; espaço de endereço</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>Nome da vNet e um espaço de endereço exclusivo /24 mínimo</t>
-        </is>
-      </c>
+          <t>As cargas de trabalho na Solução VMware do Azure não são expostas diretamente à Internet. O tráfego é filtrado e inspecionado pelo Gateway de Aplicativo do Azure, pelo Firewall do Azure ou por soluções de terceiros</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2171,16 +1968,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/quick-create-portal</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>91f7a87b-21ac-d712-959c-8df2ba034253</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2191,27 +1984,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Sub-rede do gateway</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>A sub-rede deve ser chamada de GatewaySubnet</t>
-        </is>
-      </c>
+          <t>A auditoria e o registro em log são implementados para solicitações de entrada da Internet para cargas de trabalho baseadas na Solução VMware do Azure e na Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2220,16 +2009,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>58a027e2-f37f-b540-45d5-e44843aba26b</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2240,24 +2025,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>VPN Gateway</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>Criar um gateway VPN na sub-rede do gateway de hub</t>
-        </is>
-      </c>
+          <t>O monitoramento de sessão é implementado para conexões de saída da Internet a partir da Solução VMware do Azure ou cargas de trabalho baseadas na Solução VMware do Azure para identificar atividades suspeitas/mal-intencionadas</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2269,16 +2050,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>d4806549-0913-3e79-b580-ac2d3706e65a</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2289,24 +2066,20 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ExR Gateway</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>Crie um ExR Gateway na sub-rede do hub Gateway.</t>
-        </is>
-      </c>
+          <t>A proteção padrão contra DDoS está habilitada na sub-rede do Gateway ExR/VPN no Azure</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2318,17 +2091,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>864d7a8b-7016-c769-a717-61af6bfb73d2</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2339,24 +2108,20 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Ponto de saída</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>Como será o tráfego da Internet, Az Firewall, NVA, Secure Hub, firewall local?</t>
-        </is>
-      </c>
+          <t>Usar uma estação de trabalho de acesso privilegiado (PAW) dedicada para gerenciar a Solução VMware do Azure, o vCenter, o gerenciador NSX e o gerenciador HCX</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2368,17 +2133,13 @@
         </is>
       </c>
       <c r="G33" s="21" t="n"/>
-      <c r="H33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/enable-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cc2e11b9-7911-7da1-458c-d7fcef794aad</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2389,24 +2150,20 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastião</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Conectividade remota com AVS</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>Permitir conectividade remota com AVS através do portal, especificamente para vCenter, NSX-T e HCX</t>
-        </is>
-      </c>
+          <t>Habilitar a Detecção Avançada de Ameaças (Microsoft Defender for Cloud, também conhecido como ASC) para cargas de trabalho em execução na Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2418,17 +2175,13 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
-        </is>
-      </c>
+      <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>71e68ce3-982e-5e56-0191-01100ad0e66f</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2439,24 +2192,20 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastião</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Configurar um jumbox e o Bastião do Azure</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Nomeie o jumpbox e identifique a sub-rede onde ele será hospedado</t>
-        </is>
-      </c>
+          <t>Usar o Azure ARC for Servers para controlar corretamente as cargas de trabalho em execução na Solução VMware do Azure usando tecnologias nativas do Azure (o Azure ARC for Azure VMware Solution ainda não está disponível)</t>
+        </is>
+      </c>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2468,17 +2217,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/tutorial-create-host-portal</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>6f8e93a2-44b1-bb1d-28a1-4d5b3c2ea857</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2489,27 +2234,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastião</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Medida de segurança que permite o acesso RDP através do portal</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>Fornece conectividade RDP/SSH segura / perfeita para suas vm's diretamente através do portal.</t>
-        </is>
-      </c>
+          <t>Garanta que as cargas de trabalho na Solução VMware do Azure usem criptografia de dados suficiente durante o tempo de execução (como criptografia de disco convidado e SQL TDE). (a criptografia vSAN em repouso é padrão)</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2518,17 +2259,13 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-groups-overview</t>
-        </is>
-      </c>
+      <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ba430d58-4541-085c-3641-068c00be9bc5</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2276,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Conectar-se ao Azure usando uma VPN</t>
-        </is>
-      </c>
-      <c r="D37" s="21" t="inlineStr">
-        <is>
-          <t>Usando uma VPN para se conectar ao Azure para habilitar comunicações VMware (HCX) (não recomendado)</t>
-        </is>
-      </c>
+          <t>Quando a criptografia no convidado é usada, armazene chaves de criptografia no cofre de chaves do Azure quando possível</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2568,17 +2301,13 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-site-to-site-vpn-gateway</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9988598f-2a9f-6b12-9b46-488415ceb325</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,27 +2318,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Dimensionamento de largura de banda</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>Use a ferramenta de avaliação de migração e a linha do tempo para determinar a largura de banda necessária (por exemplo, a ferramenta 3rd party no link)</t>
-        </is>
-      </c>
+          <t>Verifique se o suporte estendido à atualização de segurança está configurado para cargas de trabalho em execução na Solução VMware do Azure (a Solução VMware do Azure é qualificada para ESU)</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2618,17 +2343,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://www.omnicalculator.com/other/data-transfer#:~:text=To%20calculate%20the%20data%20transfer%20speed%3A%201%20Download,measured%20time%20to%20find%20the%20data%20transfer%20speed.</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>956ce5e9-a862-fe2b-a50d-a22923569357</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,27 +2360,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roteamento de tráfego </t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>Qual tráfego é roteado através de um firewall, o que vai diretamente para o Azure</t>
-        </is>
-      </c>
+          <t>Verifique se a política de armazenamento de modelo de VM apropriada é usada</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2668,17 +2385,13 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>e095116f-0bdc-4b51-4d71-b9e469d56f59</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2402,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Hub vWAN</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Nome vWAN, nome do hub e espaço de endereço</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>Nome e espaço de endereço exclusivo para a vWAN, nome para o hub vWAN</t>
-        </is>
-      </c>
+          <t>Certifique-se de ter solicitado cota suficiente, garantindo que você tenha considerado o crescimento e o requisito de recuperação de desastres</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2718,17 +2427,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-site-to-site-portal#openvwan</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>4dc480ac-cecd-39c4-fdc6-680b300716ab</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2739,27 +2444,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Hub vWAN</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Gateway ExR e/ou VPN provisionado</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>Selecione boh ou o tipo de conexão apropriado.</t>
-        </is>
-      </c>
+          <t>Certifique-se de que a política de falha na tolerância esteja em vigor para atender às suas necessidades de armazenamento vSAN</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2768,17 +2469,13 @@
         </is>
       </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-point-to-site-portal</t>
-        </is>
-      </c>
+      <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>51d6affd-8e02-6aea-d3d4-0baf618b3076</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2789,24 +2486,20 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Hub vWAN</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>vWAN seguro</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>Adicionar firewall do Azure ao vWAN (recomendado)</t>
-        </is>
-      </c>
+          <t>Certifique-se de que as restrições de acesso ao ESXi sejam compreendidas, há limites de acesso que podem afetar as soluções de terceiros 3rd.</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2818,17 +2511,13 @@
         </is>
       </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-expressroute-portal</t>
-        </is>
-      </c>
+      <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e32a4c67-3dc0-c134-1c12-52d46dcbab5b</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2839,27 +2528,23 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Acesso</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Identidade externa (contas de usuário)</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>Active Directory ou outros servidores do provedor de identidade</t>
-        </is>
-      </c>
+          <t>Certifique-se de ter uma política em torno da densidade e eficiência do host ESXi, tendo em mente o prazo de espera para solicitar novos nós</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2868,17 +2553,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>fbc47fbf-bc96-fa93-ed5d-8c9be63cd5c3</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2889,24 +2570,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Acesso</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o domínio do AD, verifique se Sites &amp; Services foi configurado</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>Não é necessário para LDAPS, necessário para Kerberos</t>
-        </is>
-      </c>
+          <t>Garantir que um bom processo de gerenciamento de custos esteja em vigor para a Solução VMware do Azure - o Gerenciamento de Custos do Azure pode ser usado</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2918,17 +2595,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b5db7975-f6bb-8ba3-ee5f-e3e805887997</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2939,27 +2612,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Acesso</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Usar LDAPS não ldap ( vCenter)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>A autenticação para usuários deve ser segura.</t>
-        </is>
-      </c>
+          <t>As instâncias reservadas do Azure são usadas para otimizar o custo de uso da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2968,16 +2637,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>c30749c4-e2af-558c-2eb9-0b6ae84881d1</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2988,24 +2653,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Acesso</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Usar LDAPS não ldap (NSX-T)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>A autenticação para usuários deve ser segura.</t>
-        </is>
-      </c>
+          <t>Considere o uso do Azure Private-Link ao usar outros Serviços Nativos do Azure</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3017,17 +2678,13 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-external-identity-source-nsx-t</t>
-        </is>
-      </c>
+      <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>64cb9b5c-9edd-787e-1dd8-2b2338e51635</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3038,24 +2695,20 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certificado de segurança instalado em servidores LDAPS </t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>Nomes CN ou SAN, sem curingas, contém chave privada - CER ou PFX</t>
-        </is>
-      </c>
+          <t>Habilitar cargas de trabalho de VM convidada do Microsoft Defender for Cloud for Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3067,17 +2720,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://youtu.be/4jvfbsrhnEs</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>bec285ab-037e-d629-81d1-f61dac23cd4c</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3088,24 +2737,20 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>RBAC aplicado a funções do Azure</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>Controles de acesso baseados em funções padrão do Azure</t>
-        </is>
-      </c>
+          <t>Usar servidores habilitados para Azure Arc para gerenciar suas cargas de trabalho de VM convidada da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3117,16 +2762,12 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4ba394a2-3c33-104c-8e34-2dadaba9cc73</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3137,27 +2778,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Modelo RBAC no vCenter</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>Criar funções no vCenter necessárias para atender às diretrizes de acesso mínimo viável</t>
-        </is>
-      </c>
+          <t>Habilitar o log de diagnóstico e de métrica na solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3166,16 +2803,12 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity#view-the-vcenter-server-privileges</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b04ca129-83a9-3494-7512-347dd2d766db</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3186,24 +2819,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Uso da função CloudAdmin</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>A conta do CloudAdmin no vCenter IdP é usada apenas como uma conta de emergência (break-glass)</t>
-        </is>
-      </c>
+          <t>Implantar os agentes do Log Analytics nas cargas de trabalho da VM convidada da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3215,17 +2844,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8e477d2f-8004-3dd0-93d6-0aece9e1b2fb</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3236,24 +2861,20 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança </t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>O Gerenciamento de Identidades Privilegiadas é implementado</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>Para funções que gerenciam o recurso da Solução VMware do Azure no Portal do Azure (não são permitidas permissões permanentes)</t>
-        </is>
-      </c>
+          <t>Verifique se você tem uma política e uma solução de backup documentadas e implementadas para cargas de trabalho de VM da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3265,17 +2886,13 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>00e0b729-f9be-f600-8c32-5ec0e8f2ed63</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3286,24 +2903,20 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança </t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>O relatório de auditoria do Privileged Identity Management é implementado</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>Para as funções PIM da Solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Usar o Microsoft Defender for Cloud para monitoramento de conformidade de cargas de trabalho em execução no Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3315,17 +2928,13 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>0842d45f-41a8-8274-1155-2f6ed554d315</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3336,24 +2945,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança </t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Limitar o uso da conta do CloudAdmin apenas ao acesso de emergência</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas, consulte também Monitoramento/alertas</t>
-        </is>
-      </c>
+          <t>São as linhas de base de conformidade aplicáveis adicionadas ao Microsoft Defender for Cloud</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3365,16 +2970,12 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>915cbcd7-0640-eb7c-4162-9f33775de559</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3385,27 +2986,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança </t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>É um processo definido para alternar regularmente as credenciais cloudadmin (vCenter) e admin (NSX)</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>Procedimento operacional</t>
-        </is>
-      </c>
+          <t>A residência de dados foi avaliada ao selecionar regiões do Azure a serem usadas para a implantação da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3414,17 +3011,13 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/rotate-cloudadmin-credentials?tabs=azure-portal</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>7effa0c0-9172-e8e4-726a-67dbea8be40a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3435,27 +3028,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de VM do AVS (Azure Arc)</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>Usar o Azure ARC for Servers para controlar corretamente as cargas de trabalho em execução na Solução VMware do Azure usando tecnologias nativas do Azure (o Azure ARC for Azure VMware Solution ainda não está disponível)</t>
-        </is>
-      </c>
+          <t>São implicações de processamento de dados (modelo de prestador de serviços / consumidor de serviços) claras e documentadas</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3464,16 +3053,12 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-arc/vmware-vsphere/overview</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>8f426fd0-d73b-d398-1f6f-df0cbe262a82</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3074,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Política do Azure</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>Usar a Política do Azure para integrar cargas de trabalho da Solução VMware do Azure nas soluções de Gerenciamento, Monitoramento e Segurança do Azure</t>
-        </is>
-      </c>
+          <t>Criar painéis para habilitar os principais insights de monitoramento da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3513,16 +3094,12 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>11dbe773-e380-9191-1418-e886fa7a6fd0</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3115,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Bloqueios de recursos</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>Para implantações manuais, considere implementar bloqueios de recursos para evitar ações acidentais em sua nuvem privada de solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Criar alertas de aviso para limites críticos para alertas automáticos sobre o desempenho da solução VMware do Azure (CPU &gt;80%, memória média &gt;80%, vSAN &gt;70%)</t>
+        </is>
+      </c>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3562,16 +3135,12 @@
         </is>
       </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-resource-manager/management/lock-resources?tabs=json#configure-locks</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1e59c639-9b7e-a60b-5e93-3798c1aff5db</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,22 +3156,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Executar livros</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>Para implantações manuais, todas as configurações e implantações devem ser documentadas</t>
-        </is>
-      </c>
+          <t>Certifique-se de que o alerta crítico seja criado para monitorar se o consumo de vSAN está abaixo de 75%, pois esse é um limite de suporte do VMware</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3611,16 +3176,12 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>Make sure to create your own runbook on the deployment of AVS.</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8f2c46aa-ca1b-cad3-3ac9-213dfc0a265e</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3636,22 +3197,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Convenções de nomenclatura para chaves de autenticação</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="inlineStr">
-        <is>
-          <t>Implemente nomes humanos compreensíveis para chaves de autorização ExR para permitir a fácil identificação da finalidade/uso das chaves</t>
-        </is>
-      </c>
+          <t>Verifique se os alertas estão configurados para alertas e notificações de Integridade do Serviço do Azure</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3660,16 +3217,12 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-abbreviations</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>86b314f9-1f1e-317a-4dfb-cf510ad4a030</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,24 +3233,20 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
+          <t>Gestão</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
           <t>Monitorização</t>
         </is>
       </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>Alertas</t>
-        </is>
-      </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Criar alertas de aviso para limites críticos </t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>Para alertas automáticos sobre o desempenho da Solução VMware do Azure (CPU &gt;80%, Memória média &gt;80%, vSAN &gt;70%)</t>
-        </is>
-      </c>
+          <t>Configurar o log da Solução VMware do Azure para ser enviado para uma conta de Armazenamento do Azure ou para o Azure EventHub para processamento</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3709,16 +3258,12 @@
         </is>
       </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>e22a2d99-eb71-7d7c-07af-6d4cdb1d4443</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,27 +3274,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
+          <t>Gestão</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
           <t>Monitorização</t>
         </is>
       </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>Alertas</t>
-        </is>
-      </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Criar alerta crítico de consumo de vSAN</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="inlineStr">
-        <is>
-          <t>para alertas automáticos sobre o desempenho da solução VMware do Azure (CPU &gt;80%, memória média &gt;80%, vSAN &gt;70%)</t>
-        </is>
-      </c>
+          <t>Se for necessário um insight profundo no VMware vSphere: o vRealize Operations e/ou o vRealize Network Insights são usados na solução?</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3758,16 +3299,12 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6d02f159-627d-79bf-a931-fab6d947eda2</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3778,27 +3315,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Alertas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Configurado para alertas e notificações de Integridade do Serviço do Azure</t>
-        </is>
-      </c>
-      <c r="D62" s="21" t="inlineStr">
-        <is>
-          <t>Fornece alertas de plataforma (gerados pela Microsoft)</t>
-        </is>
-      </c>
+          <t>Verifique se a política de armazenamento vSAN para VMs NÃO é a política de armazenamento padrão, pois essa política aplica provisionamento espesso</t>
+        </is>
+      </c>
+      <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3807,16 +3340,12 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://www.virtualworkloads.com/2021/04/azure-vmware-solution-azure-service-health/</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>1cc97b39-2c7e-246f-6d73-789cfebfe951</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3827,24 +3356,20 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Política de backup</t>
-        </is>
-      </c>
-      <c r="D63" s="21" t="inlineStr">
-        <is>
-          <t>Verifique se você tem uma política e uma solução de backup documentadas e implementadas para cargas de trabalho de VM da Solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Verifique se as bibliotecas de conteúdo do vSphere não são colocadas no vSAN, pois o vSAN é um recurso finito</t>
+        </is>
+      </c>
+      <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3856,17 +3381,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>0962606c-e3b4-62a9-5661-e4ffd62a4509</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3877,24 +3398,20 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Capacidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Política em torno da densidade e eficiência do host ESXi</t>
-        </is>
-      </c>
-      <c r="D64" s="21" t="inlineStr">
-        <is>
-          <t>Lembre-se do prazo de entrega para solicitar novos nós</t>
-        </is>
-      </c>
+          <t>Certifique-se de que os repositórios de dados da solução de backup sejam armazenados fora do armazenamento vSAN. No nativo do Azure ou em um armazenamento de dados com backup de pool de discos</t>
+        </is>
+      </c>
+      <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3906,17 +3423,13 @@
         </is>
       </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>4ec7ccfb-795e-897e-4a84-fd31c04eadc6</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3927,24 +3440,20 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Custos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantir que um bom processo de gerenciamento de custos esteja em vigor para a Solução VMware do Azure - </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">O Gerenciamento de Custos do Azure pode ser usado - uma opção, colocar o AVS em sua própria Assinatura. </t>
-        </is>
-      </c>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam gerenciadas de forma híbrida usando o Azure Arc for Servers (a Solução VMware do Arc for Azure está em visualização)</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -3956,17 +3465,13 @@
         </is>
       </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/govern</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>7f8f175d-13f4-5298-9e61-0bc7e9fcc279</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3977,24 +3482,20 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Painel</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Painel do monitor de conexão</t>
-        </is>
-      </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>Criar painéis para habilitar os principais insights de monitoramento da Solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam monitoradas usando o Azure Log Analytics e o Azure Monitor</t>
+        </is>
+      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4006,16 +3507,12 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>01e689e0-7c6c-b58f-37bd-4d6b9b1b9c74</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4026,24 +3523,20 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Logs &amp; Métricas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configurar o log da Solução VMware do Azure </t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>Enviar para uma conta de Armazenamento do Azure ou para o Azure EventHub para processamento (o Log Analytics está pendente)</t>
-        </is>
-      </c>
+          <t>Incluir cargas de trabalho em execução na Solução VMware do Azure nas ferramentas de gerenciamento de atualizações existentes ou no Gerenciamento de Atualizações do Azure</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4055,17 +3548,13 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>f9afdcc9-649d-d840-9fb5-a3c0edcc697d</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4076,24 +3565,20 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Logs &amp; Métricas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>vRealize Operações</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>Deve ser local, implementar, se disponível</t>
-        </is>
-      </c>
+          <t>Usar a Política do Azure para integrar cargas de trabalho da Solução VMware do Azure nas soluções de Gerenciamento, Monitoramento e Segurança do Azure</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4105,17 +3590,13 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Is vROPS or vRealize Network Insight going to be used? </t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7cbac8c3-4eda-d5d9-9bda-c6b5abba9fb6</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4126,27 +3607,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Logs &amp; Métricas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Registro em log da VM AVS</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam monitoradas usando o Azure Log Analytics e o Azure Monitor</t>
-        </is>
-      </c>
+          <t>Quando o ANF for usado para estender o armazenamento para a Solução VMware do Azure, verifique se ele será usado no nível da VM somente por enquanto (ANF como armazenamento de dados NFS ainda está em visualização privada)</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4155,17 +3632,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>b243521a-644d-f865-7fb6-21f9019c0dd2</t>
+          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4176,24 +3649,20 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitorar conexões de Rota Expressa e/ou VPN </t>
-        </is>
-      </c>
-      <c r="D70" s="21" t="inlineStr">
-        <is>
-          <t>Entre o local e o Azure são monitorados usando o 'monitor de conexão'</t>
-        </is>
-      </c>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam integradas ao Microsoft Defender for Cloud</t>
+        </is>
+      </c>
+      <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4205,17 +3674,13 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>2ca97d91-dd36-7229-b668-01036ccc3cd3</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,24 +3691,20 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Monitorar de um recurso nativo do Azure para uma VM de solução VMware do Azure</t>
-        </is>
-      </c>
-      <c r="D71" s="21" t="inlineStr">
-        <is>
-          <t>Para monitorar a conexão de Rota Expressa de back-end da Solução VMware do Azure (Azure nativo para AVS)</t>
-        </is>
-      </c>
+          <t>Verifique se os backups não são armazenados no vSAN, pois o vSAN é um recurso finito</t>
+        </is>
+      </c>
+      <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4255,17 +3716,13 @@
         </is>
       </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>99209143-60fe-19f0-5633-8b5671277ba5</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,24 +3733,20 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Monitorar de um recurso local para uma VM de solução VMware do Azure</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>Para monitorar cargas de trabalho de ponta a ponta, locais para AVS</t>
-        </is>
-      </c>
+          <t>Usar o VMware Site Recovery Manager quando ambos os sites forem a Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4305,17 +3758,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>b9e5867c-57d3-036f-fb1b-3f0a71664efe</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,24 +3775,20 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auditoria e registro em log são implementados para a Internet de entrada </t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>Controlar solicitações para cargas de trabalho baseadas na Solução VMware do Azure e na Solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Usar o Azure Site Recovery quando a tecnologia de Recuperação de Desastres for IaaS nativa do Azure</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4355,17 +3800,13 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="inlineStr">
-        <is>
-          <t>Firewall logging and alerting rules are configured (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
+      <c r="H73" s="15" t="n"/>
       <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4af7c5f7-e5e9-bedf-a8cf-314b81735962</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,27 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitoramento de sessão  </t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Implementado para conexões de saída da Internet a partir da Solução VMware do Azure ou cargas de trabalho baseadas na Solução VMware do Azure para identificar atividades suspeitas/mal-intencionadas</t>
-        </is>
-      </c>
+          <t>Use planos de recuperação automatizados com qualquer uma das soluções de desastre, evite ao máximo tarefas manuais</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4405,17 +3842,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>74be60a3-cfac-f057-eda6-3ee087e805d5</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,24 +3859,20 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>VMWare</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Registro em log e diagnóstico</t>
-        </is>
-      </c>
-      <c r="D75" s="21" t="inlineStr">
-        <is>
-          <t>Habilitar o log de diagnóstico e de métrica na solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Usar o par de regiões geopolíticas como o ambiente secundário de recuperação de desastres</t>
+        </is>
+      </c>
+      <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4455,17 +3884,13 @@
         </is>
       </c>
       <c r="G75" s="21" t="n"/>
-      <c r="H75" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>a434b3b5-f258-0845-cd76-d7df6ef5890e</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +3901,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>VMware</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Agentes do Log Analytics implantados em cargas de trabalho de VM convidada da Solução VMware do Azure</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>Monitorar cargas de trabalho do AVS (cada VM no AVS)</t>
-        </is>
-      </c>
+          <t>Use 2 espaços de endereço diferentes entre as regiões, por exemplo: 10.0.0.0/16 e 192.168.0.0/16 para as diferentes regiões</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4505,17 +3926,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-monitor/agents/agent-windows?tabs=setup-wizard</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fb00b69a-83ec-ce72-446e-6c23a0cab09a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4526,24 +3943,20 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roteamento Norte/Sul através do Az Firewall ou 3rd party </t>
-        </is>
-      </c>
-      <c r="D77" s="21" t="inlineStr">
-        <is>
-          <t>Decisão sobre o fluxo de tráfego</t>
-        </is>
-      </c>
+          <t>O ExpressRoute Global Reach será usado para conectividade entre as Nuvens Privadas da Solução VMware do Azure primária e secundária ou o roteamento é feito por meio de dispositivos virtuais de rede?</t>
+        </is>
+      </c>
+      <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4555,17 +3968,13 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H77" s="15" t="n"/>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1354b87-e18e-bf5c-c50b-8ddf0540e971</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4576,24 +3985,20 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Leste Oeste (Interno ao Azure)</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>Decisão de rotear o tráfego do Azure para o Azure por meio do Firewall, não E/W entre cargas de trabalho do AVS (internas ao AVS)</t>
-        </is>
-      </c>
+          <t>Use o MABS como sua solução de backup</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4605,17 +4010,13 @@
         </is>
       </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H78" s="15" t="n"/>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>29a8a499-ec31-f336-3266-0895f035e379</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4626,24 +4027,20 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>ExR sem alcance global</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Requer um NVA de terceiros 3rd com o servidor de Rota do Azure - Cenário 2 (consulte o link)</t>
-        </is>
-      </c>
+          <t>Implante sua solução de backup na mesma região que sua nuvem privada da Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4655,17 +4052,13 @@
         </is>
       </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H79" s="15" t="n"/>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>ebd3cc3c-ac3d-4293-950d-cecd8445a523</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4676,24 +4069,20 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Falou</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servidor de rotas </t>
-        </is>
-      </c>
-      <c r="D80" s="21" t="inlineStr">
-        <is>
-          <t>Quando o servidor de rotas for usado, certifique-se de que não mais de 200 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS). Importante ao usar o MoN</t>
-        </is>
-      </c>
+          <t>De preferência, implante o MABS fora do SDDC como IaaS nativa do Azure</t>
+        </is>
+      </c>
+      <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -4705,17 +4094,13 @@
         </is>
       </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/route-server/route-server-faq</t>
-        </is>
-      </c>
+      <c r="H80" s="15" t="n"/>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ffb5c5ca-bd89-ff1b-8b73-8a54d503d506</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4726,27 +4111,23 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Ponto(s) de saída</t>
-        </is>
-      </c>
-      <c r="D81" s="21" t="inlineStr">
-        <is>
-          <t>Via on-premises, Az Firewall, 3rd Party, NSX-T IP púbico</t>
-        </is>
-      </c>
+          <t>Existe um processo para solicitar uma restauração dos componentes VMware gerenciados pela Plataforma Azure?</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4755,17 +4136,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-design-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a4070dad-3def-818d-e9f7-be440d10e7de</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Estratégia de implantação</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Aplicativos voltados para a Internet</t>
-        </is>
-      </c>
-      <c r="D82" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Az Firewall, 3rd party NVA, Application Gateway, Azure Frontdoor </t>
-        </is>
-      </c>
+          <t>Para implantações manuais, todas as configurações e implantações devem ser documentadas</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4805,17 +4178,13 @@
         </is>
       </c>
       <c r="G82" s="21" t="n"/>
-      <c r="H82" s="15" t="inlineStr">
-        <is>
-          <t>Research and choose optimal solution for each application</t>
-        </is>
-      </c>
+      <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e942c03d-beaa-3d9f-0526-9b26cd5e9937</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Roteamento</t>
+          <t>Estratégia de implantação</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando o limite de rota do servidor de rotas entendeu? </t>
-        </is>
-      </c>
-      <c r="D83" s="21" t="inlineStr">
-        <is>
-          <t>Certifique-se de que não mais de 200 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS). Importante ao usar o MoN</t>
-        </is>
-      </c>
+          <t>Para implantações manuais, considere implementar bloqueios de recursos para evitar ações acidentais em sua nuvem privada de solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4855,17 +4220,13 @@
         </is>
       </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/route-server/route-server-faq#route-server-limits</t>
-        </is>
-      </c>
+      <c r="H83" s="15" t="n"/>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e778a2ec-b4d7-1d27-574c-14476b167d37</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4237,23 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Implantação automatizada</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A proteção DDoS padrão de endereços IP voltados para o público?  </t>
-        </is>
-      </c>
-      <c r="D84" s="21" t="inlineStr">
-        <is>
-          <t>(VPN Gateway, AppGW, FrontDoor, Load balancer, VMs (etc) (Remover: habilitado na sub-rede ExR/VPN Gateway no Azure)</t>
-        </is>
-      </c>
+          <t>Para implantações automatizadas, implante uma nuvem privada mínima e dimensione conforme necessário</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4905,17 +4262,13 @@
         </is>
       </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/ddos-protection/manage-ddos-protection</t>
-        </is>
-      </c>
+      <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>66c97b30-81b9-139a-cc76-dd1d94aef42a</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,27 +4279,23 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Implantação automatizada</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Usar uma estação de trabalho de acesso privilegiado (PAW) dedicada</t>
-        </is>
-      </c>
-      <c r="D85" s="21" t="inlineStr">
-        <is>
-          <t>Para gerenciar a Solução VMware do Azure, o vCenter, o gerenciador NSX e o gerenciador HCX</t>
-        </is>
-      </c>
+          <t>Para implantações automatizadas, solicite ou reserve cota antes de iniciar a implantação</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4955,17 +4304,13 @@
         </is>
       </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="inlineStr">
-        <is>
-          <t>Best practice: Bastion or 3rd party tool</t>
-        </is>
-      </c>
+      <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d43da920-4ecc-a4e9-dd45-a2986ce81d32</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4321,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Fiscalização de Tráfego</t>
+          <t>Implantação automatizada</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Leste Oeste (Interno ao AVS)</t>
-        </is>
-      </c>
-      <c r="D86" s="21" t="inlineStr">
-        <is>
-          <t>Usar o NSX-T para inspeção de tráfego entre vmwares</t>
-        </is>
-      </c>
+          <t>Para implantação automatizada, verifique se os bloqueios de recursos relevantes são criados por meio da automação ou da Política do Azure para uma governança adequada</t>
+        </is>
+      </c>
+      <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5005,17 +4346,13 @@
         </is>
       </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/administration/GUID-F6685367-7AA1-4771-927E-ED77727CFDA3.html</t>
-        </is>
-      </c>
+      <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>a2dac74f-5380-6e39-25e6-f13b99ece51f</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,27 +4363,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Usar o Secure Hub (Firewall do Azure ou 3ª parte)</t>
-        </is>
-      </c>
-      <c r="D87" s="21" t="inlineStr">
-        <is>
-          <t>Decisão sobre usar ou não o hub seguro para tráfego E/W e Internet - requer alcance global</t>
-        </is>
-      </c>
+          <t>Implemente nomes humanos compreensíveis para chaves de autorização ExR para permitir a fácil identificação da finalidade/uso das chaves</t>
+        </is>
+      </c>
+      <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5055,17 +4388,13 @@
         </is>
       </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
+      <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>3f621543-dfac-c471-54a6-7b2849b6909a</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +4405,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Leste Oeste (Interno ao Azure)</t>
-        </is>
-      </c>
-      <c r="D88" s="21" t="inlineStr">
-        <is>
-          <t>Decisão de rotear o tráfego do Azure para o Azure por meio do Firewall, não E/W entre cargas de trabalho do AVS (internas ao AVS)</t>
-        </is>
-      </c>
+          <t>Usar o Cofre de chaves para armazenar segredos e chaves de autorização quando Princípios de Serviço separados são usados para implantar a Solução VMware do Azure e a Rota Expressa</t>
+        </is>
+      </c>
+      <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5105,17 +4430,13 @@
         </is>
       </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/secure-cloud-network</t>
-        </is>
-      </c>
+      <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>d7af5670-1b39-d95d-6da2-8d660dfbe16b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +4447,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Balança Automatizada</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Planejamento de operações de expansão</t>
-        </is>
-      </c>
-      <c r="D89" s="21" t="inlineStr">
-        <is>
-          <t>Ao pretender usar a expansão automatizada, certifique-se de aplicar cota suficiente da Solução VMware do Azure para as assinaturas que executam a Solução VMware do Azure</t>
-        </is>
-      </c>
+          <t>Defina dependências de recursos para serializar ações na IaC quando muitos recursos precisarem ser implantados na/na Solução VMware do Azure, pois a Solução VMware do Azure oferece suporte apenas a um número limitado de operações paralelas.</t>
+        </is>
+      </c>
+      <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5155,17 +4472,13 @@
         </is>
       </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-nsx-network-components-azure-portal</t>
-        </is>
-      </c>
+      <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>7d049005-eb35-4a93-50a5-3b31a9f61161</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +4489,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Balança Automatizada</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Escala no planejamento de operações</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="inlineStr">
-        <is>
-          <t>Ao pretender usar o scale-in automatizado, certifique-se de levar em consideração os requisitos da política de armazenamento antes de executar essa ação</t>
-        </is>
-      </c>
+          <t>Ao executar a configuração automatizada de segmentos NSX-T com um único gateway de Nível 1, use as APIs do Portal do Azure em vez das APIs do NSX-Manager</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5205,17 +4514,13 @@
         </is>
       </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H90" s="15" t="n"/>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>7242c1de-da37-27f3-1ddd-565ccccb8ece</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,7 +4531,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -5236,14 +4541,10 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Dimensione o planejamento de operações serializadas</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>As operações de dimensionamento sempre precisam ser serializadas em um único SDDC, pois apenas uma operação de escala pode ser executada por vez (mesmo quando vários clusters são usados)</t>
-        </is>
-      </c>
+          <t>Ao pretender usar a expansão automatizada, certifique-se de aplicar cota suficiente da Solução VMware do Azure para as assinaturas que executam a Solução VMware do Azure</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5255,17 +4556,13 @@
         </is>
       </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3233e49e-62ce-97f3-8737-8230e771b694</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,7 +4573,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -5286,14 +4583,10 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Dimensionar o planejamento de operações</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>Considerar e validar operações de dimensionamento em soluções de terceiros 3rd usadas na arquitetura (suportadas ou não)</t>
-        </is>
-      </c>
+          <t>Ao pretender usar o scale-in automatizado, certifique-se de levar em consideração os requisitos da política de armazenamento antes de executar essa ação</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5305,17 +4598,13 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="inlineStr">
-        <is>
-          <t>Best practice (testing)</t>
-        </is>
-      </c>
+      <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>68161d66-5707-319b-e77d-9217da892593</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,7 +4615,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5336,14 +4625,10 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Dimensione o planejamento máximo de operações</t>
-        </is>
-      </c>
-      <c r="D93" s="21" t="inlineStr">
-        <is>
-          <t>Definir e impor limites máximos de entrada/saída de escala para seu ambiente nas automações</t>
-        </is>
-      </c>
+          <t>As operações de dimensionamento sempre precisam ser serializadas em um único SDDC, pois apenas uma operação de escala pode ser executada por vez (mesmo quando vários clusters são usados)</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5355,17 +4640,13 @@
         </is>
       </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="inlineStr">
-        <is>
-          <t>Operational planning - understand workload requirements</t>
-        </is>
-      </c>
+      <c r="H93" s="15" t="n"/>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c32cb953-e860-f204-957a-c79d61202669</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,7 +4657,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5386,14 +4667,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitorar operações de dimensionamento </t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Implementar regras de monitoramento para monitorar operações de dimensionamento automatizadas e monitorar o sucesso e a falha para habilitar respostas apropriadas (automatizadas)</t>
-        </is>
-      </c>
+          <t>Considerar e validar operações de dimensionamento em soluções de terceiros 3rd usadas na arquitetura (suportadas ou não)</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5405,17 +4682,13 @@
         </is>
       </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-management-and-monitoring</t>
-        </is>
-      </c>
+      <c r="H94" s="15" t="n"/>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>7bd65a5e-7b5d-652d-dbea-fc6f73a42857</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,24 +4699,20 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Balança Automatizada</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Link privado</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>Considere o uso do Azure Private-Link ao usar outros Serviços Nativos do Azure</t>
-        </is>
-      </c>
+          <t>Definir e impor limites máximos de entrada/saída de escala para seu ambiente nas automações</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5455,17 +4724,13 @@
         </is>
       </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-link-overview</t>
-        </is>
-      </c>
+      <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>95e374af-8a2a-2672-7ab7-b4a1be43ada7</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,24 +4741,20 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Outros Serviços/Operações</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Balança Automatizada</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Provisionamento de VLANs Vmware</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="inlineStr">
-        <is>
-          <t>Ao executar a configuração automatizada de segmentos NSX-T com um único gateway de Nível 1, use as APIs do Portal do Azure em vez das APIs do NSX-Manager</t>
-        </is>
-      </c>
+          <t>Implementar regras de monitoramento para monitorar operações de dimensionamento automatizadas e monitorar o sucesso e a falha para habilitar respostas apropriadas (automatizadas)</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5505,17 +4766,13 @@
         </is>
       </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H96" s="15" t="n"/>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>71eff90d-5ad7-ac60-6244-2a6f7d3c51f2</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5524,1837 +4781,615 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B97" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C97" s="21" t="inlineStr">
-        <is>
-          <t>Região selecionada</t>
-        </is>
-      </c>
-      <c r="D97" s="21" t="inlineStr">
-        <is>
-          <t>Em qual região o AVS será implantado</t>
-        </is>
-      </c>
-      <c r="E97" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A97" s="21" t="n"/>
+      <c r="B97" s="21" t="n"/>
+      <c r="C97" s="21" t="n"/>
+      <c r="D97" s="21" t="n"/>
+      <c r="E97" s="21" t="n"/>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="inlineStr">
-        <is>
-          <t>04e3a2f9-83b7-968a-1044-2811811a924b</t>
-        </is>
-      </c>
+      <c r="L97" s="25" t="n"/>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B98" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C98" s="21" t="inlineStr">
-        <is>
-          <t>Residência de dados compatível com regiões selecionadas</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="inlineStr">
-        <is>
-          <t>Existem políticas regulatórias ou de conformidade em jogo</t>
-        </is>
-      </c>
-      <c r="E98" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A98" s="21" t="n"/>
+      <c r="B98" s="21" t="n"/>
+      <c r="C98" s="21" t="n"/>
+      <c r="D98" s="21" t="n"/>
+      <c r="E98" s="21" t="n"/>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="inlineStr">
-        <is>
-          <t>Internal policy or regulatory compliance</t>
-        </is>
-      </c>
+      <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="inlineStr">
-        <is>
-          <t>e52d1615-9cc6-565c-deb6-743ed7e90f4b</t>
-        </is>
-      </c>
+      <c r="L98" s="25" t="n"/>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B99" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C99" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solicitação de número de hosts AVS enviados </t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>Solicitação através da lâmina de suporte</t>
-        </is>
-      </c>
-      <c r="E99" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A99" s="21" t="n"/>
+      <c r="B99" s="21" t="n"/>
+      <c r="C99" s="21" t="n"/>
+      <c r="D99" s="21" t="n"/>
+      <c r="E99" s="21" t="n"/>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/concepts-azure-vmware-solution-assessment-calculation</t>
-        </is>
-      </c>
+      <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="inlineStr">
-        <is>
-          <t>92bd5ad6-441f-a983-7aa9-05dd669d760b</t>
-        </is>
-      </c>
+      <c r="L99" s="25" t="n"/>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B100" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C100" s="21" t="inlineStr">
-        <is>
-          <t>Região e número de nós AVS aprovados</t>
-        </is>
-      </c>
-      <c r="D100" s="21" t="inlineStr">
-        <is>
-          <t>Aprovação PG para implantação</t>
-        </is>
-      </c>
-      <c r="E100" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A100" s="21" t="n"/>
+      <c r="B100" s="21" t="n"/>
+      <c r="C100" s="21" t="n"/>
+      <c r="D100" s="21" t="n"/>
+      <c r="E100" s="21" t="n"/>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="inlineStr">
-        <is>
-          <t>Support request through portal or get help from Account Team</t>
-        </is>
-      </c>
+      <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="inlineStr">
-        <is>
-          <t>28370f63-1cb8-2e35-907f-c5516b6954fa</t>
-        </is>
-      </c>
+      <c r="L100" s="25" t="n"/>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B101" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C101" s="21" t="inlineStr">
-        <is>
-          <t>Provedor de recursos para AVS registrado</t>
-        </is>
-      </c>
-      <c r="D101" s="21" t="inlineStr">
-        <is>
-          <t>Portal/assinatura/provedores de recursos/ Microsoft.AVS</t>
-        </is>
-      </c>
-      <c r="E101" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A101" s="21" t="n"/>
+      <c r="B101" s="21" t="n"/>
+      <c r="C101" s="21" t="n"/>
+      <c r="D101" s="21" t="n"/>
+      <c r="E101" s="21" t="n"/>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="inlineStr">
-        <is>
-          <t>Done through the subscription/resource providers/ AVS  register in the portal</t>
-        </is>
-      </c>
+      <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="inlineStr">
-        <is>
-          <t>96c76997-30a6-bb92-024d-f4f93f5f57fa</t>
-        </is>
-      </c>
+      <c r="L101" s="25" t="n"/>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B102" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C102" s="21" t="inlineStr">
-        <is>
-          <t>Arquitetura da zona de pouso</t>
-        </is>
-      </c>
-      <c r="D102" s="21" t="inlineStr">
-        <is>
-          <t>Connectivity, subscription &amp; governanace model</t>
-        </is>
-      </c>
-      <c r="E102" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A102" s="21" t="n"/>
+      <c r="B102" s="21" t="n"/>
+      <c r="C102" s="21" t="n"/>
+      <c r="D102" s="21" t="n"/>
+      <c r="E102" s="21" t="n"/>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/enterprise-scale-landing-zone</t>
-        </is>
-      </c>
+      <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="inlineStr">
-        <is>
-          <t>5898e3ff-5e6b-bee1-6f85-22fee261ce63</t>
-        </is>
-      </c>
+      <c r="L102" s="25" t="n"/>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B103" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C103" s="21" t="inlineStr">
-        <is>
-          <t>Nome do grupo de recursos selecionado</t>
-        </is>
-      </c>
-      <c r="D103" s="21" t="inlineStr">
-        <is>
-          <t>O nome do RG onde o AVS existirá</t>
-        </is>
-      </c>
-      <c r="E103" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A103" s="21" t="n"/>
+      <c r="B103" s="21" t="n"/>
+      <c r="C103" s="21" t="n"/>
+      <c r="D103" s="21" t="n"/>
+      <c r="E103" s="21" t="n"/>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/manage-resource-groups-portal</t>
-        </is>
-      </c>
+      <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="inlineStr">
-        <is>
-          <t>d0181fb8-9cb8-bf4b-f5e5-b5f9bf7ae4ea</t>
-        </is>
-      </c>
+      <c r="L103" s="25" t="n"/>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B104" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C104" s="21" t="inlineStr">
-        <is>
-          <t>Prefixo de implantação selecionado</t>
-        </is>
-      </c>
-      <c r="D104" s="21" t="inlineStr">
-        <is>
-          <t>Cada recurso criado como parte da implantação também utilizará esse prefixo no nome</t>
-        </is>
-      </c>
-      <c r="E104" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A104" s="21" t="n"/>
+      <c r="B104" s="21" t="n"/>
+      <c r="C104" s="21" t="n"/>
+      <c r="D104" s="21" t="n"/>
+      <c r="E104" s="21" t="n"/>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="inlineStr">
-        <is>
-          <t>Best practice - naming standards</t>
-        </is>
-      </c>
+      <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="inlineStr">
-        <is>
-          <t>0f0d20c2-5a19-726c-de20-0984e070d9d6</t>
-        </is>
-      </c>
+      <c r="L104" s="25" t="n"/>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B105" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C105" s="21" t="inlineStr">
-        <is>
-          <t>Espaço de rede para a camada de gerenciamento AVS</t>
-        </is>
-      </c>
-      <c r="D105" s="21" t="inlineStr">
-        <is>
-          <t>/22 espaço de endereço IPv4 exclusivo e não sobreposto</t>
-        </is>
-      </c>
-      <c r="E105" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A105" s="21" t="n"/>
+      <c r="B105" s="21" t="n"/>
+      <c r="C105" s="21" t="n"/>
+      <c r="D105" s="21" t="n"/>
+      <c r="E105" s="21" t="n"/>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-network-checklist#routing-and-subnet-considerations</t>
-        </is>
-      </c>
+      <c r="H105" s="15" t="n"/>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="inlineStr">
-        <is>
-          <t>7fbf2ab7-a36c-5957-c27a-67038557af2a</t>
-        </is>
-      </c>
+      <c r="L105" s="25" t="n"/>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B106" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C106" s="21" t="inlineStr">
-        <is>
-          <t>Espaço de rede para segmentos AVS NSX-T</t>
-        </is>
-      </c>
-      <c r="D106" s="21" t="inlineStr">
-        <is>
-          <t>vNets usados por cargas de trabalho em execução no AVS (não esticadas)</t>
-        </is>
-      </c>
-      <c r="E106" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A106" s="21" t="n"/>
+      <c r="B106" s="21" t="n"/>
+      <c r="C106" s="21" t="n"/>
+      <c r="D106" s="21" t="n"/>
+      <c r="E106" s="21" t="n"/>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/installation/GUID-4B3860B8-1883-48CA-B2F3-7C2205D91D6D.html</t>
-        </is>
-      </c>
+      <c r="H106" s="15" t="n"/>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="inlineStr">
-        <is>
-          <t>0c87f999-e517-21ef-f355-f210ad4134d2</t>
-        </is>
-      </c>
+      <c r="L106" s="25" t="n"/>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C107" s="21" t="inlineStr">
-        <is>
-          <t>SKU AVS (dependente da região)</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="inlineStr">
-        <is>
-          <t>Escolha AV36, AV36P, AV52, AV36T (AV36T = Avaliação)</t>
-        </is>
-      </c>
-      <c r="E107" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A107" s="21" t="n"/>
+      <c r="B107" s="21" t="n"/>
+      <c r="C107" s="21" t="n"/>
+      <c r="D107" s="21" t="n"/>
+      <c r="E107" s="21" t="n"/>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-us/pricing/details/azure-vmware/</t>
-        </is>
-      </c>
+      <c r="H107" s="15" t="n"/>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="inlineStr">
-        <is>
-          <t>946c8966-f902-6f53-4f37-00847e8895c2</t>
-        </is>
-      </c>
+      <c r="L107" s="25" t="n"/>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B108" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C108" s="21" t="inlineStr">
-        <is>
-          <t>Número de hosts a serem implantados</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Use a ferramenta de avaliação de migração do Azure para determinar o número mínimo de nós necessários (considere também o BCDR)</t>
-        </is>
-      </c>
-      <c r="E108" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A108" s="21" t="n"/>
+      <c r="B108" s="21" t="n"/>
+      <c r="C108" s="21" t="n"/>
+      <c r="D108" s="21" t="n"/>
+      <c r="E108" s="21" t="n"/>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/how-to-assess</t>
-        </is>
-      </c>
+      <c r="H108" s="15" t="n"/>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="inlineStr">
-        <is>
-          <t>31833808-26ba-9c31-416f-d54a89a17f5d</t>
-        </is>
-      </c>
+      <c r="L108" s="25" t="n"/>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B109" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C109" s="21" t="inlineStr">
-        <is>
-          <t>Instâncias de reserva</t>
-        </is>
-      </c>
-      <c r="D109" s="21" t="inlineStr">
-        <is>
-          <t>Entender como e se você deve usar instâncias reservadas (controle de custos)</t>
-        </is>
-      </c>
-      <c r="E109" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A109" s="21" t="n"/>
+      <c r="B109" s="21" t="n"/>
+      <c r="C109" s="21" t="n"/>
+      <c r="D109" s="21" t="n"/>
+      <c r="E109" s="21" t="n"/>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-ca/pricing/details/azure-vmware/#:~:text=Azure%20VMware%20Solution%20%20%20%20Instance%20size,TB%20%28all%20NVMe%29%20%20%20N%2FA%20%2Fhour%20</t>
-        </is>
-      </c>
+      <c r="H109" s="15" t="n"/>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="inlineStr">
-        <is>
-          <t>f2b73c4f-3d46-32c9-5df1-5b8dfcd3947f</t>
-        </is>
-      </c>
+      <c r="L109" s="25" t="n"/>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B110" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C110" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capacidade </t>
-        </is>
-      </c>
-      <c r="D110" s="21" t="inlineStr">
-        <is>
-          <t>Certifique-se de ter solicitado cota suficiente, garantindo que você tenha considerado o crescimento e o requisito de recuperação de desastres</t>
-        </is>
-      </c>
-      <c r="E110" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A110" s="21" t="n"/>
+      <c r="B110" s="21" t="n"/>
+      <c r="C110" s="21" t="n"/>
+      <c r="D110" s="21" t="n"/>
+      <c r="E110" s="21" t="n"/>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H110" s="15" t="n"/>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="inlineStr">
-        <is>
-          <t>94ac48ab-ade5-3fa7-f800-263feeb97070</t>
-        </is>
-      </c>
+      <c r="L110" s="25" t="n"/>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B111" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C111" s="21" t="inlineStr">
-        <is>
-          <t>Rede &amp; Conectividade Veja documentos descrevendo scenrario 1 a 5</t>
-        </is>
-      </c>
-      <c r="D111" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Identificar quais dos cenários de rede fazem </t>
-        </is>
-      </c>
-      <c r="E111" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A111" s="21" t="n"/>
+      <c r="B111" s="21" t="n"/>
+      <c r="C111" s="21" t="n"/>
+      <c r="D111" s="21" t="n"/>
+      <c r="E111" s="21" t="n"/>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H111" s="15" t="n"/>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="inlineStr">
-        <is>
-          <t>1f9d4bd5-14b8-928c-b4cb-eb211f9b8de5</t>
-        </is>
-      </c>
+      <c r="L111" s="25" t="n"/>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="inlineStr">
-        <is>
-          <t>Planeamento</t>
-        </is>
-      </c>
-      <c r="B112" s="21" t="inlineStr">
-        <is>
-          <t>Pré-implantação</t>
-        </is>
-      </c>
-      <c r="C112" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compatibilidade de aplicativos de terceiros 3rd </t>
-        </is>
-      </c>
-      <c r="D112" s="21" t="inlineStr">
-        <is>
-          <t>Certifique-se de que as restrições de acesso ao ESXi sejam compreendidas, há limites de acesso que podem afetar as soluções de terceiros 3rd.</t>
-        </is>
-      </c>
-      <c r="E112" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="21" t="n"/>
+      <c r="C112" s="21" t="n"/>
+      <c r="D112" s="21" t="n"/>
+      <c r="E112" s="21" t="n"/>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="inlineStr">
-        <is>
-          <t>Please Check Partner Ecosystem</t>
-        </is>
-      </c>
+      <c r="H112" s="15" t="n"/>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="inlineStr">
-        <is>
-          <t>070db19b-8a2a-fd6a-c39b-4488d8780da9</t>
-        </is>
-      </c>
+      <c r="L112" s="25" t="n"/>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B113" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C113" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habilitar a detecção avançada de ameaças </t>
-        </is>
-      </c>
-      <c r="D113" s="21" t="inlineStr">
-        <is>
-          <t>MS Defender For Cloud, para cargas de trabalho em execução no Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="E113" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="21" t="n"/>
+      <c r="C113" s="21" t="n"/>
+      <c r="D113" s="21" t="n"/>
+      <c r="E113" s="21" t="n"/>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/azure-security-integration#prerequisites</t>
-        </is>
-      </c>
+      <c r="H113" s="15" t="n"/>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="inlineStr">
-        <is>
-          <t>f42b0b09-c591-238a-1580-2de3c485ebd2</t>
-        </is>
-      </c>
+      <c r="L113" s="25" t="n"/>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="B114" s="21" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C114" s="21" t="inlineStr">
-        <is>
-          <t>Política e Conformidade Regulatória</t>
-        </is>
-      </c>
-      <c r="D114" s="21" t="inlineStr">
-        <is>
-          <t>As políticas aplicáveis estão habilitadas (linhas de base de conformidade adicionadas ao MDfC)</t>
-        </is>
-      </c>
-      <c r="E114" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="21" t="n"/>
+      <c r="C114" s="21" t="n"/>
+      <c r="D114" s="21" t="n"/>
+      <c r="E114" s="21" t="n"/>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/azure-security-integration</t>
-        </is>
-      </c>
+      <c r="H114" s="15" t="n"/>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="inlineStr">
-        <is>
-          <t>bcdd2348-3d0e-c6bb-1092-aa4cd1a66d6b</t>
-        </is>
-      </c>
+      <c r="L114" s="25" t="n"/>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B115" s="21" t="inlineStr">
-        <is>
-          <t>Firewalls</t>
-        </is>
-      </c>
-      <c r="C115" s="21" t="inlineStr">
-        <is>
-          <t>Azure / firewall de terceiros</t>
-        </is>
-      </c>
-      <c r="D115" s="21" t="inlineStr">
-        <is>
-          <t>Azure para Azure (E/W), Azure para On-premises), AVS para Internet, AVS para Azure</t>
-        </is>
-      </c>
-      <c r="E115" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="21" t="n"/>
+      <c r="C115" s="21" t="n"/>
+      <c r="D115" s="21" t="n"/>
+      <c r="E115" s="21" t="n"/>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-migration-and/firewall-integration-in-azure-vmware-solution/ba-p/2254961#:~:text=Azure%20VMware%20Solution%20customers%20have%20multiple%20security%20options,the%20box%20to%20provide%20East-West%20and%20North-South%20firewalling.</t>
-        </is>
-      </c>
+      <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="inlineStr">
-        <is>
-          <t>607c1ca9-da92-ae19-5a4c-eb1e876acbe7</t>
-        </is>
-      </c>
+      <c r="L115" s="25" t="n"/>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B116" s="21" t="inlineStr">
-        <is>
-          <t>Firewalls</t>
-        </is>
-      </c>
-      <c r="C116" s="21" t="inlineStr">
-        <is>
-          <t>Firewalls permitem tráfego Leste/Oeste dentro do AVS</t>
-        </is>
-      </c>
-      <c r="D116" s="21" t="inlineStr">
-        <is>
-          <t>Para permitir que o dispositivo HCX se conecte/sincronize</t>
-        </is>
-      </c>
-      <c r="E116" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="21" t="n"/>
+      <c r="C116" s="21" t="n"/>
+      <c r="D116" s="21" t="n"/>
+      <c r="E116" s="21" t="n"/>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-Cloud-on-AWS/services/com.vmware.vmc-aws-networking-security/GUID-2CFE1654-9CC9-4EDB-A625-21317299E559.html</t>
-        </is>
-      </c>
+      <c r="H116" s="15" t="n"/>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="inlineStr">
-        <is>
-          <t>1d87925c-c02b-7fde-a425-7e95ad846a27</t>
-        </is>
-      </c>
+      <c r="L116" s="25" t="n"/>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B117" s="21" t="inlineStr">
-        <is>
-          <t>Rede</t>
-        </is>
-      </c>
-      <c r="C117" s="21" t="inlineStr">
-        <is>
-          <t>HCX e/ou SRM</t>
-        </is>
-      </c>
-      <c r="D117" s="21" t="inlineStr">
-        <is>
-          <t>Decisão sobre qual ferramenta usar (SRM requer licença adicional - habilita automação e outros recursos)</t>
-        </is>
-      </c>
-      <c r="E117" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="21" t="n"/>
+      <c r="C117" s="21" t="n"/>
+      <c r="D117" s="21" t="n"/>
+      <c r="E117" s="21" t="n"/>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-B842696B-89EF-4183-9C73-B77157F56055.html</t>
-        </is>
-      </c>
+      <c r="H117" s="15" t="n"/>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="inlineStr">
-        <is>
-          <t>468b3495-2f6e-b65a-38ef-3ba631bcaa46</t>
-        </is>
-      </c>
+      <c r="L117" s="25" t="n"/>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>Rede</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Configurando e gerenciando a interconexão HCX</t>
-        </is>
-      </c>
-      <c r="D118" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leia sobre os requisitos para os requisitos de malha de serviço e como HCX </t>
-        </is>
-      </c>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
+      <c r="D118" s="21" t="n"/>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.6/hcx-user-guide/GUID-76BCD059-A31A-4041-9105-ACFB56213E7C.html</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>be2ced52-da08-d366-cf7c-044c19e29509</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B119" s="21" t="inlineStr">
-        <is>
-          <t>Rede</t>
-        </is>
-      </c>
-      <c r="C119" s="21" t="inlineStr">
-        <is>
-          <t>Restrições e limitações para extensões de rede</t>
-        </is>
-      </c>
-      <c r="D119" s="21" t="inlineStr">
-        <is>
-          <t>Se você estiver planejando usar redes stretch, certifique-se de que seus requisitos de ambiente local</t>
-        </is>
-      </c>
-      <c r="E119" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="21" t="n"/>
+      <c r="C119" s="21" t="n"/>
+      <c r="D119" s="21" t="n"/>
+      <c r="E119" s="21" t="n"/>
       <c r="G119" s="21" t="n"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-DBDB4D1B-60B6-4D16-936B-4AC632606909.html</t>
-        </is>
-      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="inlineStr">
-        <is>
-          <t>7dcac579-fc5c-5c9c-f1f7-9b1149ff2c37</t>
-        </is>
-      </c>
+      <c r="L119" s="25" t="n"/>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B120" s="21" t="inlineStr">
-        <is>
-          <t>Rede</t>
-        </is>
-      </c>
-      <c r="C120" s="21" t="inlineStr">
-        <is>
-          <t>Rede otimizada para mobilidade</t>
-        </is>
-      </c>
-      <c r="D120" s="21" t="inlineStr">
-        <is>
-          <t>As cargas de trabalho exigem MoN?</t>
-        </is>
-      </c>
-      <c r="E120" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A120" s="21" t="n"/>
+      <c r="B120" s="21" t="n"/>
+      <c r="C120" s="21" t="n"/>
+      <c r="D120" s="21" t="n"/>
+      <c r="E120" s="21" t="n"/>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/vmware-hcx-mon-guidance</t>
-        </is>
-      </c>
+      <c r="H120" s="15" t="n"/>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="inlineStr">
-        <is>
-          <t>cf45c0b9-6c4b-3bfb-86c5-62fe54061c73</t>
-        </is>
-      </c>
+      <c r="L120" s="25" t="n"/>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B121" s="21" t="inlineStr">
-        <is>
-          <t>Pré-requisitos locais</t>
-        </is>
-      </c>
-      <c r="C121" s="21" t="inlineStr">
-        <is>
-          <t>Matriz de suporte (versões do sistema operacional, etc).</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>Nível do sistema operacional do ambiente Vmware</t>
-        </is>
-      </c>
-      <c r="E121" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A121" s="21" t="n"/>
+      <c r="B121" s="21" t="n"/>
+      <c r="C121" s="21" t="n"/>
+      <c r="D121" s="21" t="n"/>
+      <c r="E121" s="21" t="n"/>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/site-recovery/vmware-physical-azure-support-matrix</t>
-        </is>
-      </c>
+      <c r="H121" s="15" t="n"/>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="inlineStr">
-        <is>
-          <t>b7cf11f3-b12e-5189-991a-06df5250d2ca</t>
-        </is>
-      </c>
+      <c r="L121" s="25" t="n"/>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B122" s="21" t="inlineStr">
-        <is>
-          <t>Pré-requisitos locais</t>
-        </is>
-      </c>
-      <c r="C122" s="21" t="inlineStr">
-        <is>
-          <t>Switches padrão convertidos em switches dinâmicos</t>
-        </is>
-      </c>
-      <c r="D122" s="21" t="inlineStr">
-        <is>
-          <t>Necessário que todos os switches sejam dinâmicos</t>
-        </is>
-      </c>
-      <c r="E122" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A122" s="21" t="n"/>
+      <c r="B122" s="21" t="n"/>
+      <c r="C122" s="21" t="n"/>
+      <c r="D122" s="21" t="n"/>
+      <c r="E122" s="21" t="n"/>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/vsan-network-design-guide/GUID-91E1CD6F-33A6-4AC6-BC22-3E4807296F86.html#:~:text=Migrate%20Management%20Network%201%20Add%20hosts%20to%20the,each%20host.%20...%204%20Finish%20the%20configuration.%20</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="inlineStr">
-        <is>
-          <t>45fe9252-aa1b-4e30-45c6-bc02f3b76acf</t>
-        </is>
-      </c>
+      <c r="L122" s="25" t="n"/>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B123" s="21" t="inlineStr">
-        <is>
-          <t>Pré-requisitos locais</t>
-        </is>
-      </c>
-      <c r="C123" s="21" t="inlineStr">
-        <is>
-          <t>Capacidade para o aparelho HCX</t>
-        </is>
-      </c>
-      <c r="D123" s="21" t="inlineStr">
-        <is>
-          <t>Veja seções sobre dimensionamento e capacidade no link.</t>
-        </is>
-      </c>
-      <c r="E123" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A123" s="21" t="n"/>
+      <c r="B123" s="21" t="n"/>
+      <c r="C123" s="21" t="n"/>
+      <c r="D123" s="21" t="n"/>
+      <c r="E123" s="21" t="n"/>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/plan-private-cloud-deployment</t>
-        </is>
-      </c>
+      <c r="H123" s="15" t="n"/>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="inlineStr">
-        <is>
-          <t>e9f6d736-ee44-e2ac-e7f9-e361f8c857f3</t>
-        </is>
-      </c>
+      <c r="L123" s="25" t="n"/>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B124" s="21" t="inlineStr">
-        <is>
-          <t>Pré-requisitos locais</t>
-        </is>
-      </c>
-      <c r="C124" s="21" t="inlineStr">
-        <is>
-          <t>Compatibilidade de hardware</t>
-        </is>
-      </c>
-      <c r="D124" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Verifique as restrições de hardware para garantir a compatibilidade com o AVS/OS </t>
-        </is>
-      </c>
-      <c r="E124" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A124" s="21" t="n"/>
+      <c r="B124" s="21" t="n"/>
+      <c r="C124" s="21" t="n"/>
+      <c r="D124" s="21" t="n"/>
+      <c r="E124" s="21" t="n"/>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="inlineStr">
-        <is>
-          <t>https://kb.vmware.com/s/article/2007240#:~:text=ESXi%2FESX%20hosts%20and%20compatible%20virtual%20machine%20hardware%20versions,%20Not%20Supported%20%204%20more%20rows</t>
-        </is>
-      </c>
+      <c r="H124" s="15" t="n"/>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="inlineStr">
-        <is>
-          <t>1be2cdd6-15a7-9a33-aea7-113859035ce9</t>
-        </is>
-      </c>
+      <c r="L124" s="25" t="n"/>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B125" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C125" s="21" t="inlineStr">
-        <is>
-          <t>Os discos VSAN RDM são convertidos - não suportados.</t>
-        </is>
-      </c>
-      <c r="D125" s="21" t="inlineStr">
-        <is>
-          <t>Precisa ser convertido</t>
-        </is>
-      </c>
-      <c r="E125" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A125" s="21" t="n"/>
+      <c r="B125" s="21" t="n"/>
+      <c r="C125" s="21" t="n"/>
+      <c r="D125" s="21" t="n"/>
+      <c r="E125" s="21" t="n"/>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/com.vmware.vsphere.storage.doc/GUID-01D3CF47-A84A-4988-8103-A0487D6441AA.html</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="inlineStr">
-        <is>
-          <t>16ab821a-27c6-b6d3-6042-10dc4d6dfcb7</t>
-        </is>
-      </c>
+      <c r="L125" s="25" t="n"/>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B126" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C126" s="21" t="inlineStr">
-        <is>
-          <t>VM com barramento compartilhado SCSI não são suportados</t>
-        </is>
-      </c>
-      <c r="D126" s="21" t="inlineStr">
-        <is>
-          <t>Precisa ser convertido</t>
-        </is>
-      </c>
-      <c r="E126" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A126" s="21" t="n"/>
+      <c r="B126" s="21" t="n"/>
+      <c r="C126" s="21" t="n"/>
+      <c r="D126" s="21" t="n"/>
+      <c r="E126" s="21" t="n"/>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="inlineStr">
-        <is>
-          <t>3rd-Party tools</t>
-        </is>
-      </c>
+      <c r="H126" s="15" t="n"/>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="inlineStr">
-        <is>
-          <t>eb2f9313-afb2-ab35-aa24-6d97a3cb0611</t>
-        </is>
-      </c>
+      <c r="L126" s="25" t="n"/>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B127" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C127" s="21" t="inlineStr">
-        <is>
-          <t>VM com E/S direta exigem a remoção do dispositivo DirectPath</t>
-        </is>
-      </c>
-      <c r="D127" s="21" t="inlineStr">
-        <is>
-          <t>Remover E/S direta antes da migração</t>
-        </is>
-      </c>
-      <c r="E127" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A127" s="21" t="n"/>
+      <c r="B127" s="21" t="n"/>
+      <c r="C127" s="21" t="n"/>
+      <c r="D127" s="21" t="n"/>
+      <c r="E127" s="21" t="n"/>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="inlineStr">
-        <is>
-          <t>3f2a5cff-c8a6-634a-1f1b-53ef9d321381</t>
-        </is>
-      </c>
+      <c r="L127" s="25" t="n"/>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B128" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C128" s="21" t="inlineStr">
-        <is>
-          <t>Não há suporte para arquivos VMDK compartilhados</t>
-        </is>
-      </c>
-      <c r="D128" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Não é possível migrar clusters </t>
-        </is>
-      </c>
-      <c r="E128" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A128" s="21" t="n"/>
+      <c r="B128" s="21" t="n"/>
+      <c r="C128" s="21" t="n"/>
+      <c r="D128" s="21" t="n"/>
+      <c r="E128" s="21" t="n"/>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="inlineStr">
-        <is>
-          <t>efc8a311-74f8-0252-c6a0-4bac7610e266</t>
-        </is>
-      </c>
+      <c r="L128" s="25" t="n"/>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B129" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C129" s="21" t="inlineStr">
-        <is>
-          <t>RDM com 'modo de compatibilidade física' não são suportados.</t>
-        </is>
-      </c>
-      <c r="D129" s="21" t="inlineStr">
-        <is>
-          <t>Converter para um formato diferente</t>
-        </is>
-      </c>
-      <c r="E129" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A129" s="21" t="n"/>
+      <c r="B129" s="21" t="n"/>
+      <c r="C129" s="21" t="n"/>
+      <c r="D129" s="21" t="n"/>
+      <c r="E129" s="21" t="n"/>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="inlineStr">
-        <is>
-          <t>ab6c89cd-a26f-b894-fe59-61863975458e</t>
-        </is>
-      </c>
+      <c r="L129" s="25" t="n"/>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B130" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C130" s="21" t="inlineStr">
-        <is>
-          <t>Política de armazenamento padrão</t>
-        </is>
-      </c>
-      <c r="D130" s="21" t="inlineStr">
-        <is>
-          <t>Certifique-se de que a política de armazenamento vSAN para VMs NÃO seja a política de armazenamento padrão, pois essa política se aplica ao provisionamento espesso 'RAID-1 FTT-1' é padrão com o provisionamento thin</t>
-        </is>
-      </c>
-      <c r="E130" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A130" s="21" t="n"/>
+      <c r="B130" s="21" t="n"/>
+      <c r="C130" s="21" t="n"/>
+      <c r="D130" s="21" t="n"/>
+      <c r="E130" s="21" t="n"/>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="inlineStr">
-        <is>
-          <t>7628d446-6b10-9678-9cec-f407d990de43</t>
-        </is>
-      </c>
+      <c r="L130" s="25" t="n"/>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Verifique se a política de armazenamento de modelo de VM apropriada é usada</t>
-        </is>
-      </c>
-      <c r="D131" s="21" t="inlineStr">
-        <is>
-          <t>A política de armazenamento padrão é definida como RAID-1 (espelhamento) FTT-1, com Reserva de Espaço de Objeto definida como Provisionamento thin.</t>
-        </is>
-      </c>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
+      <c r="D131" s="21" t="n"/>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-storage-policy</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>37fef358-7ab9-43a9-542c-22673955200e</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B132" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C132" s="21" t="inlineStr">
-        <is>
-          <t>Falha na política de tolerância</t>
-        </is>
-      </c>
-      <c r="D132" s="21" t="inlineStr">
-        <is>
-          <t>Certifique-se de que a política de falha na tolerância esteja em vigor para atender às suas necessidades de armazenamento vSAN</t>
-        </is>
-      </c>
-      <c r="E132" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A132" s="21" t="n"/>
+      <c r="B132" s="21" t="n"/>
+      <c r="C132" s="21" t="n"/>
+      <c r="D132" s="21" t="n"/>
+      <c r="E132" s="21" t="n"/>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="inlineStr">
-        <is>
-          <t>ebebd109-9f9d-d85e-1b2f-d302012843b7</t>
-        </is>
-      </c>
+      <c r="L132" s="25" t="n"/>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B133" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C133" s="21" t="inlineStr">
-        <is>
-          <t>Usar ANF para armazenamento externo</t>
-        </is>
-      </c>
-      <c r="D133" s="21" t="inlineStr">
-        <is>
-          <t>O ANF pode ser usado para estender o armazenamento para a Solução VMware do Azure,</t>
-        </is>
-      </c>
-      <c r="E133" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A133" s="21" t="n"/>
+      <c r="B133" s="21" t="n"/>
+      <c r="C133" s="21" t="n"/>
+      <c r="D133" s="21" t="n"/>
+      <c r="E133" s="21" t="n"/>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/netapp-files-with-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H133" s="15" t="n"/>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="inlineStr">
-        <is>
-          <t>1be821bd-4f37-216a-3e3d-2a5ac6996863</t>
-        </is>
-      </c>
+      <c r="L133" s="25" t="n"/>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
@@ -9877,20 +7912,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9902,123 +8035,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F134" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10033,7 +8051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10109,7 +8127,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Planeamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10146,7 +8164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10173,7 +8191,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -10195,7 +8213,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10217,7 +8235,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -10234,28 +8252,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monitorização</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BCDR</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Outros Serviços/Operações</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Gestão</t>
+          <t>Automação de Plataformas</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avs_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.pt.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os controladores de domínio ADDS são implantados na assinatura de identidade no Azure nativo</t>
+          <t>Verifique se os controladores de domínio ADDS estão implantados na assinatura de identidade no Azure nativo</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Garantir que o NSX-Manager esteja integrado a um provedor de identidade externo</t>
+          <t>Certifique-se de que o NSX-Manager esteja integrado a um provedor de identidade externo (LDAPS)</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1437,17 +1437,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>O modelo de conectividade correto da Solução VMware do Azure está selecionado para o caso de uso do cliente em mãos?</t>
+          <t>Certifique-se de que todas as funções personalizadas tenham escopo com autorizações permitidas do CloudAdmin</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1462,17 +1462,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1488,12 +1484,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Arquitetura</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as conexões de Rota Expressa ou VPN do local para o Azure sejam monitoradas usando o 'monitor de conexão'</t>
+          <t>O modelo de conectividade correto da Solução VMware do Azure está selecionado para o caso de uso do cliente em mãos?</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1508,13 +1504,17 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
+        </is>
+      </c>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Verifique se um monitor de conexão foi criado a partir de um recurso nativo do Azure para uma máquina virtual da Solução VMware do Azure para monitorar a conexão de Rota Expressa de back-end da Solução VMware do Azure</t>
+          <t>Garantir que as conexões de Rota Expressa ou VPN do local para o Azure sejam monitoradas usando o 'monitor de conexão'</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Verifique se um monitor de conexão é criado a partir de um recurso local para uma máquina virtual da Solução VMware do Azure para monitorar a conectividade de ponta 2</t>
+          <t>Verifique se um monitor de conexão foi criado a partir de um recurso nativo do Azure para uma máquina virtual da Solução VMware do Azure para monitorar a conexão de Rota Expressa de back-end da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1598,7 +1598,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1614,18 +1614,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Roteamento</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Quando o servidor de rotas for usado, certifique-se de que não mais de 200 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS). Importante ao usar o MoN</t>
+          <t>Verifique se um monitor de conexão é criado a partir de um recurso local para uma máquina virtual da Solução VMware do Azure para monitorar a conectividade de ponta 2</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1640,7 +1640,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1651,17 +1651,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Segurança (identidade)</t>
+          <t>Roteamento</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>O Gerenciamento de Identidades Privilegiadas é implementado para funções que gerenciam o recurso da Solução VMware do Azure no Portal do Azure (não são permitidas permissões permanentes)</t>
+          <t>Quando o servidor de rotas for usado, certifique-se de que não mais de 1000 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS).</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>O relatório de auditoria do Gerenciamento de Identidades Privilegiadas é implementado para as funções PIM da Solução VMware do Azure</t>
+          <t>O Gerenciamento de Identidades Privilegiadas é implementado para funções que gerenciam o recurso da Solução VMware do Azure no Portal do Azure (não são permitidas permissões permanentes)</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Limitar o uso da conta do CloudAdmin apenas ao acesso de emergência</t>
+          <t>Os relatórios de auditoria do Gerenciamento de Identidades Privilegiadas devem ser implementados para as funções PIM da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1766,7 +1766,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Criar funções RBAC personalizadas no vCenter para implementar um modelo de privilégios mínimos dentro do vCenter</t>
+          <t>Se o uso do Gerenciamento de Identidades Privilegiadas estiver sendo usado, certifique-se de que uma conta válida habilitada para ID do Entra seja criada com um registro SMTP válido para notificações de substituição automática do Host da Solução VMware do Azure. (permissões permanentes necessárias)</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1808,7 +1808,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1829,13 +1829,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>É um processo definido para alternar regularmente as credenciais cloudadmin (vCenter) e admin (NSX)</t>
+          <t>Limitar o uso da conta do CloudAdmin apenas ao acesso de emergência</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1871,13 +1871,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Usar um provedor de identidade centralizado a ser usado para cargas de trabalho (VMs) em execução na Solução VMware do Azure</t>
+          <t>Criar funções RBAC personalizadas no vCenter para implementar um modelo de privilégios mínimos dentro do vCenter</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1891,7 +1891,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1907,12 +1907,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Segurança (rede)</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>A filtragem de tráfego Leste-Oeste é implementada no NSX-T</t>
+          <t>É um processo definido para alternar regularmente as credenciais cloudadmin (vCenter) e admin (NSX)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1932,7 +1932,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Segurança (rede)</t>
+          <t>Segurança (identidade)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>As cargas de trabalho na Solução VMware do Azure não são expostas diretamente à Internet. O tráfego é filtrado e inspecionado pelo Gateway de Aplicativo do Azure, pelo Firewall do Azure ou por soluções de terceiros</t>
+          <t>Usar um provedor de identidade centralizado a ser usado para cargas de trabalho (VMs) em execução na Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -1973,7 +1973,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1994,13 +1994,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>A auditoria e o registro em log são implementados para solicitações de entrada da Internet para cargas de trabalho baseadas na Solução VMware do Azure e na Solução VMware do Azure</t>
+          <t>A filtragem de tráfego Leste-Oeste é implementada no NSX-T</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>O monitoramento de sessão é implementado para conexões de saída da Internet a partir da Solução VMware do Azure ou cargas de trabalho baseadas na Solução VMware do Azure para identificar atividades suspeitas/mal-intencionadas</t>
+          <t>As cargas de trabalho na Solução VMware do Azure não são diretamente expostas à Internet. O tráfego é filtrado e inspecionado pelo Gateway de Aplicativo do Azure, pelo Firewall do Azure ou por soluções de terceiros</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2055,7 +2055,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2076,13 +2076,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>A proteção padrão contra DDoS está habilitada na sub-rede do Gateway ExR/VPN no Azure</t>
+          <t>A auditoria e o registro em log são implementados para solicitações de entrada da Internet para cargas de trabalho baseadas na Solução VMware do Azure e na Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2097,7 +2097,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Usar uma estação de trabalho de acesso privilegiado (PAW) dedicada para gerenciar a Solução VMware do Azure, o vCenter, o gerenciador NSX e o gerenciador HCX</t>
+          <t>O monitoramento de sessão é implementado para conexões de saída da Internet a partir da Solução VMware do Azure ou cargas de trabalho baseadas na Solução VMware do Azure para identificar atividades suspeitas/mal-intencionadas</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2139,7 +2139,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Segurança (convidado/VM)</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilitar a Detecção Avançada de Ameaças (Microsoft Defender for Cloud, também conhecido como ASC) para cargas de trabalho em execução na Solução VMware do Azure</t>
+          <t>A proteção padrão contra DDoS está habilitada na sub-rede do Gateway ExR/VPN no Azure</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Segurança (convidado/VM)</t>
+          <t>Segurança (rede)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure ARC for Servers para controlar corretamente as cargas de trabalho em execução na Solução VMware do Azure usando tecnologias nativas do Azure (o Azure ARC for Azure VMware Solution ainda não está disponível)</t>
+          <t>Usar uma estação de trabalho de acesso privilegiado (PAW) dedicada para gerenciar a Solução VMware do Azure, o vCenter, o gerenciador NSX e o gerenciador HCX</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2223,7 +2223,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2244,13 +2244,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Garanta que as cargas de trabalho na Solução VMware do Azure usem criptografia de dados suficiente durante o tempo de execução (como criptografia de disco convidado e SQL TDE). (a criptografia vSAN em repouso é padrão)</t>
+          <t>Habilitar a Detecção Avançada de Ameaças (Microsoft Defender for Cloud, também conhecido como ASC) para cargas de trabalho em execução na Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2265,7 +2265,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2286,13 +2286,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Quando a criptografia no convidado é usada, armazene chaves de criptografia no cofre de chaves do Azure quando possível</t>
+          <t>Usar o Azure ARC for Servers para controlar corretamente as cargas de trabalho em execução na Solução VMware do Azure usando tecnologias nativas do Azure (o Azure ARC for Azure VMware Solution ainda não está disponível)</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2307,7 +2307,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Verifique se o suporte estendido à atualização de segurança está configurado para cargas de trabalho em execução na Solução VMware do Azure (a Solução VMware do Azure é qualificada para ESU)</t>
+          <t>Garanta que as cargas de trabalho na Solução VMware do Azure usem criptografia de dados suficiente durante o tempo de execução (como criptografia de disco convidado e SQL TDE). (a criptografia vSAN em repouso é padrão)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2349,7 +2349,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2365,18 +2365,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Governança (plataforma)</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a política de armazenamento de modelo de VM apropriada é usada</t>
+          <t>Quando a criptografia no convidado é usada, armazene chaves de criptografia no cofre de chaves do Azure quando possível</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2407,18 +2407,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Governança (plataforma)</t>
+          <t>Segurança (convidado/VM)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de ter solicitado cota suficiente, garantindo que você tenha considerado o crescimento e o requisito de recuperação de desastres</t>
+          <t>Considere usar o suporte estendido de atualização de segurança para cargas de trabalho em execução na Solução VMware do Azure (a Solução VMware do Azure é qualificada para ESU)</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que a política de falha na tolerância esteja em vigor para atender às suas necessidades de armazenamento vSAN</t>
+          <t>Certifique-se de que o método de redundância de dados vSAN apropriado seja usado (especificação RAID)</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que as restrições de acesso ao ESXi sejam compreendidas, há limites de acesso que podem afetar as soluções de terceiros 3rd.</t>
+          <t>Certifique-se de que a política de falha na tolerância esteja em vigor para atender às suas necessidades de armazenamento vSAN</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de ter uma política em torno da densidade e eficiência do host ESXi, tendo em mente o prazo de espera para solicitar novos nós</t>
+          <t>Certifique-se de ter solicitado cota suficiente, garantindo que você tenha considerado o crescimento e o requisito de recuperação de desastres</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2559,7 +2559,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Garantir que um bom processo de gerenciamento de custos esteja em vigor para a Solução VMware do Azure - o Gerenciamento de Custos do Azure pode ser usado</t>
+          <t>Certifique-se de que as restrições de acesso ao ESXi sejam compreendidas, há limites de acesso que podem afetar as soluções de terceiros 3rd.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2622,13 +2622,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>As instâncias reservadas do Azure são usadas para otimizar o custo de uso da Solução VMware do Azure</t>
+          <t>Certifique-se de ter uma política em torno da densidade e eficiência do host ESXi, tendo em mente o prazo de espera para solicitar novos nós</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2642,7 +2642,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Azure Private-Link ao usar outros Serviços Nativos do Azure</t>
+          <t>Garantir que um bom processo de gerenciamento de custos esteja em vigor para a Solução VMware do Azure - o Gerenciamento de Custos do Azure pode ser usado</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2700,18 +2700,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Governança (convidado/VM)</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Habilitar cargas de trabalho de VM convidada do Microsoft Defender for Cloud for Azure VMware Solution</t>
+          <t>As instâncias reservadas do Azure são usadas para otimizar o custo de uso da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Governança (convidado/VM)</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Usar servidores habilitados para Azure Arc para gerenciar suas cargas de trabalho de VM convidada da Solução VMware do Azure</t>
+          <t>Considere o uso do Azure Private-Link ao usar outros Serviços Nativos do Azure</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2767,7 +2767,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Governança (convidado/VM)</t>
+          <t>Governança (plataforma)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o log de diagnóstico e de métrica na solução VMware do Azure</t>
+          <t>Verifique se todos os recursos necessários residem na(s) mesma(s) zona(s) de disponibilidade do Azure</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Implantar os agentes do Log Analytics nas cargas de trabalho da VM convidada da Solução VMware do Azure</t>
+          <t>Habilitar cargas de trabalho de VM convidada do Microsoft Defender for Cloud for Azure VMware Solution</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2850,7 +2850,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma política e uma solução de backup documentadas e implementadas para cargas de trabalho de VM da Solução VMware do Azure</t>
+          <t>Usar servidores habilitados para Arc do Azure para gerenciar suas cargas de trabalho de VM convidada da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2892,7 +2892,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2908,18 +2908,18 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Usar o Microsoft Defender for Cloud para monitoramento de conformidade de cargas de trabalho em execução no Azure VMware Solution</t>
+          <t>Habilitar o log de diagnóstico e de métrica na solução VMware do Azure</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2934,7 +2934,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>São as linhas de base de conformidade aplicáveis adicionadas ao Microsoft Defender for Cloud</t>
+          <t>Implantar os agentes do Log Analytics nas cargas de trabalho da VM convidada da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -2975,7 +2975,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2991,18 +2991,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Governança (convidado/VM)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>A residência de dados foi avaliada ao selecionar regiões do Azure a serem usadas para a implantação da Solução VMware do Azure</t>
+          <t>Verifique se você tem uma política e uma solução de backup documentadas e implementadas para cargas de trabalho de VM da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3017,7 +3017,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3038,13 +3038,13 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>São implicações de processamento de dados (modelo de prestador de serviços / consumidor de serviços) claras e documentadas</t>
+          <t>Usar o Microsoft Defender for Cloud para monitoramento de conformidade de cargas de trabalho em execução no Azure VMware Solution</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3058,7 +3058,7 @@
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Criar painéis para habilitar os principais insights de monitoramento da Solução VMware do Azure</t>
+          <t>São as linhas de base de conformidade aplicáveis adicionadas ao Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3099,7 +3099,7 @@
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3110,17 +3110,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Criar alertas de aviso para limites críticos para alertas automáticos sobre o desempenho da solução VMware do Azure (CPU &gt;80%, memória média &gt;80%, vSAN &gt;70%)</t>
+          <t>A residência de dados foi avaliada ao selecionar regiões do Azure a serem usadas para a implantação da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3140,7 +3140,7 @@
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3151,17 +3151,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que o alerta crítico seja criado para monitorar se o consumo de vSAN está abaixo de 75%, pois esse é um limite de suporte do VMware</t>
+          <t>As implicações do processamento de dados (modelo de prestador de serviços / consumidor de serviços) são claras e documentadas</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3181,7 +3181,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3192,23 +3192,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os alertas estão configurados para alertas e notificações de Integridade do Serviço do Azure</t>
+          <t>Considere o uso de CMK (Customer Managed Key) para vSAN somente se necessário por motivo(s) de conformidade.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3243,13 +3243,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Configurar o log da Solução VMware do Azure para ser enviado para uma conta de Armazenamento do Azure ou para o Azure EventHub para processamento</t>
+          <t>Criar painéis para habilitar os principais insights de monitoramento da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3263,7 +3263,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3284,13 +3284,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Se for necessário um insight profundo no VMware vSphere: o vRealize Operations e/ou o vRealize Network Insights são usados na solução?</t>
+          <t>Criar alertas de aviso para limites críticos para alertas automáticos sobre o desempenho da solução VMware do Azure (CPU &gt;80%, memória média &gt;80%, vSAN &gt;70%)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Verifique se a política de armazenamento vSAN para VMs NÃO é a política de armazenamento padrão, pois essa política aplica provisionamento espesso</t>
+          <t>Certifique-se de que o alerta crítico seja criado para monitorar se o consumo de vSAN está abaixo de 75%, pois esse é um limite de suporte do VMware</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3345,7 +3345,7 @@
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3361,18 +3361,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Verifique se as bibliotecas de conteúdo do vSphere não são colocadas no vSAN, pois o vSAN é um recurso finito</t>
+          <t>Verifique se os alertas estão configurados para alertas e notificações de Integridade do Serviço do Azure</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3387,7 +3387,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que os repositórios de dados da solução de backup sejam armazenados fora do armazenamento vSAN. No nativo do Azure ou em um armazenamento de dados com backup de pool de discos</t>
+          <t>Configurar o log da Solução VMware do Azure para ser enviado a uma conta de Armazenamento do Azure ou ao Azure EventHub para processamento</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3445,18 +3445,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam gerenciadas de forma híbrida usando o Azure Arc for Servers (a Solução VMware do Arc for Azure está em visualização)</t>
+          <t>Se for necessário um insight profundo no VMware vSphere: o vRealize Operations e/ou o vRealize Network Insights são usados na solução?</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3492,13 +3492,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam monitoradas usando o Azure Log Analytics e o Azure Monitor</t>
+          <t>Verifique se a política de armazenamento vSAN para VMs NÃO é a política de armazenamento padrão, pois essa política aplica provisionamento espesso</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3512,7 +3512,7 @@
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Incluir cargas de trabalho em execução na Solução VMware do Azure nas ferramentas de gerenciamento de atualizações existentes ou no Gerenciamento de Atualizações do Azure</t>
+          <t>Verifique se as bibliotecas de conteúdo do vSphere não são colocadas no vSAN, pois o vSAN é um recurso finito</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3554,7 +3554,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para integrar cargas de trabalho da Solução VMware do Azure nas soluções de Gerenciamento, Monitoramento e Segurança do Azure</t>
+          <t>Certifique-se de que os repositórios de dados da solução de backup sejam armazenados fora do armazenamento vSAN. No nativo do Azure ou em um armazenamento de dados com backup de pool de discos</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3596,7 +3596,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3617,13 +3617,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Quando o ANF for usado para estender o armazenamento para a Solução VMware do Azure, verifique se ele será usado no nível da VM somente por enquanto (ANF como armazenamento de dados NFS ainda está em visualização privada)</t>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam gerenciadas de forma híbrida usando o Azure Arc for Servers (a Solução VMware do Arc for Azure está em visualização)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3638,7 +3638,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam integradas ao Microsoft Defender for Cloud</t>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam monitoradas usando o Azure Log Analytics e o Azure Monitor</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3680,7 +3680,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3691,17 +3691,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os backups não são armazenados no vSAN, pois o vSAN é um recurso finito</t>
+          <t>Incluir cargas de trabalho em execução na Solução VMware do Azure nas ferramentas de gerenciamento de atualizações existentes ou no Gerenciamento de Atualizações do Azure</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3722,7 +3722,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3733,17 +3733,17 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Usar o VMware Site Recovery Manager quando ambos os sites forem a Solução VMware do Azure</t>
+          <t>Usar a Política do Azure para integrar cargas de trabalho da Solução VMware do Azure nas soluções de Gerenciamento, Monitoramento e Segurança do Azure</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3764,7 +3764,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3775,17 +3775,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure Site Recovery quando a tecnologia de Recuperação de Desastres for IaaS nativa do Azure</t>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam integradas ao Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3806,7 +3806,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3822,18 +3822,18 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use planos de recuperação automatizados com qualquer uma das soluções de desastre, evite ao máximo tarefas manuais</t>
+          <t>Certifique-se de que os backups não sejam armazenados no vSAN, pois o vSAN é um recurso finito</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3848,7 +3848,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Usar o par de regiões geopolíticas como o ambiente secundário de recuperação de desastres</t>
+          <t>Todas as soluções de DR foram consideradas e uma solução que é melhor para o seu negócio foi decidida? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3890,7 +3890,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -3911,13 +3911,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use 2 espaços de endereço diferentes entre as regiões, por exemplo: 10.0.0.0/16 e 192.168.0.0/16 para as diferentes regiões</t>
+          <t>Usar o Azure Site Recovery quando a tecnologia de Recuperação de Desastres for IaaS nativa do Azure</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -3953,13 +3953,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>O ExpressRoute Global Reach será usado para conectividade entre as Nuvens Privadas da Solução VMware do Azure primária e secundária ou o roteamento é feito por meio de dispositivos virtuais de rede?</t>
+          <t>Use planos de recuperação automatizados com qualquer uma das soluções de desastre, evite ao máximo tarefas manuais</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3974,7 +3974,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -3990,12 +3990,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use o MABS como sua solução de backup</t>
+          <t>Usar o par de regiões geopolíticas como o ambiente secundário de recuperação de desastres</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4016,7 +4016,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4032,18 +4032,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Implante sua solução de backup na mesma região que sua nuvem privada da Solução VMware do Azure</t>
+          <t>Use 2 espaços de endereço diferentes entre as regiões, por exemplo: 10.0.0.0/16 e 192.168.0.0/16 para as diferentes regiões</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Continuidade de Negócios</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>De preferência, implante o MABS fora do SDDC como IaaS nativa do Azure</t>
+          <t>O ExpressRoute Global Reach será usado para conectividade entre as Nuvens Privadas da Solução VMware do Azure primária e secundária ou o roteamento é feito por meio de dispositivos virtuais de rede?</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4121,13 +4121,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Existe um processo para solicitar uma restauração dos componentes VMware gerenciados pela Plataforma Azure?</t>
+          <t>Todas as soluções de backup foram consideradas e uma solução que é melhor para o seu negócio foi decidida? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4142,7 +4142,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4153,23 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataformas</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de implantação</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Para implantações manuais, todas as configurações e implantações devem ser documentadas</t>
+          <t>Implante sua solução de backup na mesma região que sua nuvem privada da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4195,23 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataformas</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Estratégia de implantação</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Para implantações manuais, considere implementar bloqueios de recursos para evitar ações acidentais em sua nuvem privada de solução VMware do Azure</t>
+          <t>Implante sua solução de backup fora do vSan, em componentes nativos do Azure</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4226,7 +4226,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4237,17 +4237,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Automação de Plataformas</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Implantação automatizada</t>
+          <t>Continuidade de Negócios</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Para implantações automatizadas, implante uma nuvem privada mínima e dimensione conforme necessário</t>
+          <t>Existe um processo para solicitar uma restauração dos componentes VMware gerenciados pela Plataforma Azure?</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4268,7 +4268,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Implantação automatizada</t>
+          <t>Estratégia de implantação</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Para implantações automatizadas, solicite ou reserve cota antes de iniciar a implantação</t>
+          <t>Para implantações manuais, todas as configurações e implantações devem ser documentadas</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4310,7 +4310,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Implantação automatizada</t>
+          <t>Estratégia de implantação</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Para implantação automatizada, verifique se os bloqueios de recursos relevantes são criados por meio da automação ou da Política do Azure para uma governança adequada</t>
+          <t>Para implantações manuais, considere implementar bloqueios de recursos para evitar ações acidentais em sua nuvem privada de solução VMware do Azure</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4352,7 +4352,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Conectividade automatizada</t>
+          <t>Implantação automatizada</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Implemente nomes humanos compreensíveis para chaves de autorização ExR para permitir a fácil identificação da finalidade/uso das chaves</t>
+          <t>Para implantações automatizadas, implante uma nuvem privada mínima e dimensione conforme necessário</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Conectividade automatizada</t>
+          <t>Implantação automatizada</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de chaves para armazenar segredos e chaves de autorização quando Princípios de Serviço separados são usados para implantar a Solução VMware do Azure e a Rota Expressa</t>
+          <t>Para implantações automatizadas, solicite ou reserve cota antes de iniciar a implantação</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4436,7 +4436,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Conectividade automatizada</t>
+          <t>Implantação automatizada</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Defina dependências de recursos para serializar ações na IaC quando muitos recursos precisarem ser implantados na/na Solução VMware do Azure, pois a Solução VMware do Azure oferece suporte apenas a um número limitado de operações paralelas.</t>
+          <t>Para implantação automatizada, verifique se os bloqueios de recursos relevantes são criados por meio da automação ou da Política do Azure para uma governança adequada</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Ao executar a configuração automatizada de segmentos NSX-T com um único gateway de Nível 1, use as APIs do Portal do Azure em vez das APIs do NSX-Manager</t>
+          <t>Implemente nomes humanos compreensíveis para chaves de autorização ExR para permitir a fácil identificação da finalidade/uso das chaves</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4536,18 +4536,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Balança Automatizada</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Ao pretender usar a expansão automatizada, certifique-se de aplicar cota suficiente da Solução VMware do Azure para as assinaturas que executam a Solução VMware do Azure</t>
+          <t>Usar o Cofre de chaves para armazenar segredos e chaves de autorização quando Princípios de Serviço separados são usados para implantar a Solução VMware do Azure e a Rota Expressa</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4562,7 +4562,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4578,18 +4578,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Balança Automatizada</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Ao pretender usar o scale-in automatizado, certifique-se de levar em consideração os requisitos da política de armazenamento antes de executar essa ação</t>
+          <t>Defina dependências de recursos para serializar ações no IaC quando muitos recursos precisarem ser implantados no/na Solução VMware do Azure, pois a Solução VMware do Azure oferece suporte apenas a um número limitado de operações paralelas.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Balança Automatizada</t>
+          <t>Conectividade automatizada</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>As operações de dimensionamento sempre precisam ser serializadas em um único SDDC, pois apenas uma operação de escala pode ser executada por vez (mesmo quando vários clusters são usados)</t>
+          <t>Ao executar a configuração automatizada de segmentos NSX-T com um único gateway de Camada 1, use as APIs do Portal do Azure em vez das APIs do NSX-Manager</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4646,7 +4646,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Considerar e validar operações de dimensionamento em soluções de terceiros 3rd usadas na arquitetura (suportadas ou não)</t>
+          <t>Ao pretender usar a expansão automatizada, certifique-se de aplicar cota suficiente da Solução VMware do Azure para as assinaturas que executam a Solução VMware do Azure</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -4688,7 +4688,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Definir e impor limites máximos de entrada/saída de escala para seu ambiente nas automações</t>
+          <t>Ao pretender usar o scale-in automatizado, certifique-se de levar em consideração os requisitos da política de armazenamento antes de executar essa ação</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -4730,7 +4730,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implementar regras de monitoramento para monitorar operações de dimensionamento automatizadas e monitorar o sucesso e a falha para habilitar respostas apropriadas (automatizadas)</t>
+          <t>As operações de dimensionamento sempre precisam ser serializadas em um único SDDC, pois apenas uma operação de escala pode ser executada por vez (mesmo quando vários clusters são usados)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -4772,7 +4772,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -4781,271 +4781,719 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataformas</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Balança Automatizada</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Considerar e validar operações de dimensionamento em soluções de terceiros 3rd usadas na arquitetura (suportadas ou não)</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataformas</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Balança Automatizada</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Definir e impor limites máximos de entrada/saída de escala para seu ambiente nas automações</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Automação de Plataformas</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Balança Automatizada</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Implementar regras de monitoramento para monitorar operações de dimensionamento automatizadas e monitorar o sucesso e a falha para habilitar respostas apropriadas (automatizadas)</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Migração</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Ao usar o MON, esteja ciente dos limites de VMs configuradas simulataneamente (MON Limit for HCX [400 - standard, 1000 - Larger appliance])</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Migração</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>Ao usar o MON, você não pode habilitar o MON em mais de 100 extensões de rede</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Migração</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Rede</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>Se estiver usando uma conexão VPN para migrações, ajuste o tamanho da MTU de acordo.</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Migração</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Rede</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Para regiões de baixa conectividade conectadas ao Azure (500Mbps ou menos), considere implantar o dispositivo de otimização de WAN HCX</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Migração</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Processo</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de que as migrações sejam iniciadas a partir do dispositivo local e NÃO do dispositivo em nuvem (NÃO execute uma migração reversa)</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento de dados</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Quando o Azure Netapp Files for usado para estender o armazenamento para a Solução VMware do Azure, considere usá-lo como um armazenamento de dados VMware em vez de anexá-lo diretamente a uma VM.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento de dados</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Verifique se um ExpressRoute Gateway dedicado está sendo usado para soluções de armazenamento de dados externos</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento de dados</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Verifique se o FastPath está habilitado no ExpressRoute Gateway que está sendo usado para soluções de armazenamento de dados externos</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>Cluster estendido</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se a solução de recuperação de desastres selecionada é suportada pelo fornecedor</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Cluster estendido</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se o SLA fornecido atenderá aos seus requisitos</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Cluster estendido</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se ambos os circuitos da Rota Expressa estão conectados ao hub de conectividade.</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>Cluster estendido</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se ambos os circuitos da Rota Expressa têm o GlobalReach habilitado.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>Cluster estendido</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Arquitetura</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>Faça com que as configurações de tolerância a desastres do site tenham sido devidamente consideradas e alteradas para sua empresa, se necessário.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
@@ -8036,7 +8484,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F113" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
